--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="190">
   <si>
     <t>race</t>
   </si>
@@ -66,16 +66,31 @@
     <t>Student Government</t>
   </si>
   <si>
+    <t>Student Government is the official student voice to the UT administration, the Board of Regents and the Texas Legislature. SG aims to represent students' interests, increase student decision-making power and improve campus life by creating effective student services.</t>
+  </si>
+  <si>
     <t>Graduate Student Assembly</t>
   </si>
   <si>
+    <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization formally address specific graduate student concerns.</t>
+  </si>
+  <si>
     <t>University Co-Op</t>
   </si>
   <si>
+    <t>The University Unions Board of Directors recommends rules and procedures for the operation of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
+  </si>
+  <si>
     <t>Texas Union</t>
   </si>
   <si>
+    <t>The University Co-op Board of Directors directs the University Co-op and oversees scholarships, grants and funding. The student body elects two full-time students to serve on the board for two years.</t>
+  </si>
+  <si>
     <t>Texas Student Media</t>
+  </si>
+  <si>
+    <t>The Texas Student Media Board of Operating Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan.</t>
   </si>
   <si>
     <t>Name</t>
@@ -683,13 +698,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -757,25 +772,40 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -804,755 +834,755 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
+      <c r="A7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
+      <c r="A8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
+      <c r="A9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
+      <c r="A10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
+      <c r="A12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
+      <c r="A13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
+      <c r="A14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
+      <c r="A15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
+      <c r="A17" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
+      <c r="A18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
+      <c r="A19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
+      <c r="A20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
+      <c r="A21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
+      <c r="A22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
+      <c r="A23" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
+      <c r="A27" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
+      <c r="A28" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>47</v>
+      <c r="A29" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>48</v>
+      <c r="A30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>50</v>
+      <c r="A32" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>51</v>
+      <c r="A33" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>52</v>
+      <c r="A34" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>71</v>
+      <c r="A47" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>72</v>
+      <c r="A48" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>73</v>
+      <c r="A49" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>74</v>
+      <c r="A50" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>76</v>
+      <c r="A52" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>77</v>
+      <c r="A53" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>78</v>
+      <c r="A54" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>79</v>
+      <c r="A55" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>80</v>
+      <c r="A56" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>94</v>
+      <c r="A67" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>97</v>
+      <c r="A69" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>98</v>
+      <c r="A70" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>99</v>
+      <c r="A72" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>102</v>
+      <c r="A74" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>103</v>
+      <c r="A75" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>104</v>
+      <c r="A76" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>105</v>
+      <c r="A77" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>107</v>
+      <c r="A79" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>110</v>
+      <c r="A81" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>111</v>
+      <c r="A83" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>114</v>
+      <c r="A85" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>115</v>
+      <c r="A86" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>116</v>
+      <c r="A87" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
-        <v>117</v>
+      <c r="A89" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1569,612 +1599,612 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>123</v>
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
+      <c r="A3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2190,125 +2220,125 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>123</v>
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M2" s="1">
         <v>1.0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B5" s="5"/>
       <c r="M5" s="1">
         <v>1.0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -2327,55 +2357,55 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
+      <c r="A1" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>131</v>
+      <c r="J1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N2" s="1">
         <v>2.0</v>
@@ -2383,26 +2413,26 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2418,55 +2448,55 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
+      <c r="A1" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>131</v>
+      <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2474,58 +2504,58 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
@@ -2533,10 +2563,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2552,55 +2582,55 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>122</v>
+      <c r="A1" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>131</v>
+      <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -2608,10 +2638,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Races" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Master" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Student Government" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Graduate Student Association" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Graduate Student Assembly" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Coop" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="University Unions" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="TSM" sheetId="7" r:id="rId9"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="218">
   <si>
     <t>race</t>
   </si>
@@ -63,36 +63,54 @@
     <t>description</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>Student Government</t>
   </si>
   <si>
     <t>Student Government is the official student voice to the UT administration, the Board of Regents and the Texas Legislature. SG aims to represent students' interests, increase student decision-making power and improve campus life by creating effective student services.</t>
   </si>
   <si>
+    <t>sg</t>
+  </si>
+  <si>
     <t>Graduate Student Assembly</t>
   </si>
   <si>
     <t>Graduate Student Assembly is the official graduate student voice to the UT administration, the Board of Regents and the Texas Legislature. Members of the organization formally address specific graduate student concerns.</t>
   </si>
   <si>
+    <t>gsa</t>
+  </si>
+  <si>
     <t>University Co-Op</t>
   </si>
   <si>
     <t>The University Unions Board of Directors recommends rules and procedures for the operation of the Unions' facilities, which include the Texas Union, the Student Activity Center and the Hogg Auditorium. The board also oversees Campus Events and Entertainment.</t>
   </si>
   <si>
-    <t>Texas Union</t>
+    <t>coop</t>
+  </si>
+  <si>
+    <t>University Union</t>
   </si>
   <si>
     <t>The University Co-op Board of Directors directs the University Co-op and oversees scholarships, grants and funding. The student body elects two full-time students to serve on the board for two years.</t>
   </si>
   <si>
+    <t>union</t>
+  </si>
+  <si>
     <t>Texas Student Media</t>
   </si>
   <si>
     <t>The Texas Student Media Board of Operating Trustees oversees the University's five official media outlets: KVRX 91.7 FM, the Texas Travesty, Texas Student Television, the Cactus yearbook and The Daily Texan.</t>
   </si>
   <si>
+    <t>tsm</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -477,29 +495,13 @@
     <t>Position</t>
   </si>
   <si>
-    <t>University-Wide Representative</t>
-  </si>
-  <si>
-    <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government. 
-Let’s work together to achieve the change we want to see here at the Forty Acres. Vote Alex Tayoub for University-Wide Representative. Thank you and HOOK’EM HORNS!</t>
-  </si>
-  <si>
-    <t>Help UT empower the community of students with disabilities by expanding, promoting, and encouraging opportunities in research, leadership and careers.|||Establish a book voucher system so students can get the books they need from The Co-op and instead of paying out of pocket right there, the amount gets added to their What I Owe so financial aid and scholarships can pay for it.|||Create a task force of different members of the student body, faculty, and staff to create discussion, and come up with a variety of solutions regarding the issue of sexual assault/violence.||| Establish a more affordable meal plan for both on-campus and off-campus students.|||Make printing FREE.</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>@tayoub4uwr</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/alxtayoub</t>
+    <t>URL</t>
   </si>
   <si>
     <t>Daniel James Chapman &amp; Austin James Robinson</t>
+  </si>
+  <si>
+    <t>exec</t>
   </si>
   <si>
     <t>Jonathan Dror &amp; Delisa Shannon</t>
@@ -539,10 +541,41 @@
     <t>Kevin Helgren &amp; Binna Kim</t>
   </si>
   <si>
+    <t>University-Wide Representative</t>
+  </si>
+  <si>
+    <t>uwide</t>
+  </si>
+  <si>
+    <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government. 
+Let’s work together to achieve the change we want to see here at the Forty Acres. Vote Alex Tayoub for University-Wide Representative. Thank you and HOOK’EM HORNS!</t>
+  </si>
+  <si>
+    <t>Help UT empower the community of students with disabilities by expanding, promoting, and encouraging opportunities in research, leadership and careers.|||Establish a book voucher system so students can get the books they need from The Co-op and instead of paying out of pocket right there, the amount gets added to their What I Owe so financial aid and scholarships can pay for it.|||Create a task force of different members of the student body, faculty, and staff to create discussion, and come up with a variety of solutions regarding the issue of sexual assault/violence.||| Establish a more affordable meal plan for both on-campus and off-campus students.|||Make printing FREE.</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>@tayoub4uwr</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/alxtayoub</t>
+  </si>
+  <si>
     <t>Architecture Representative</t>
   </si>
   <si>
+    <t>arch</t>
+  </si>
+  <si>
     <t>McCombs Representative</t>
+  </si>
+  <si>
+    <t>mccombs</t>
   </si>
   <si>
     <t>Ramanika Upneja</t>
@@ -562,12 +595,21 @@
     <t>Communications Representative</t>
   </si>
   <si>
+    <t>comm</t>
+  </si>
+  <si>
     <t>Education School Representative</t>
   </si>
   <si>
+    <t>edu</t>
+  </si>
+  <si>
     <t>Engineering School Representative</t>
   </si>
   <si>
+    <t>engineering</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jacob Read </t>
   </si>
   <si>
@@ -577,33 +619,57 @@
     <t>Fine Arts Representative</t>
   </si>
   <si>
+    <t>fa</t>
+  </si>
+  <si>
     <t>Geosciences School Representative</t>
   </si>
   <si>
+    <t>geo</t>
+  </si>
+  <si>
     <t>Graduate At-Large Representative</t>
   </si>
   <si>
+    <t>gradatlarge</t>
+  </si>
+  <si>
     <t>Law School Representative</t>
   </si>
   <si>
+    <t>law</t>
+  </si>
+  <si>
     <t>Liberal Arts Representative</t>
   </si>
   <si>
+    <t>cola</t>
+  </si>
+  <si>
     <t>Alexendra Thomas</t>
   </si>
   <si>
     <t>Natural Sciences Representative</t>
   </si>
   <si>
+    <t>cns</t>
+  </si>
+  <si>
     <t>Nursing School Representative</t>
   </si>
   <si>
     <t>Social Work School Representative</t>
   </si>
   <si>
+    <t>sw</t>
+  </si>
+  <si>
     <t>School of Undergraduate Studies Representative</t>
   </si>
   <si>
+    <t>ugs</t>
+  </si>
+  <si>
     <t>Number of Positions</t>
   </si>
   <si>
@@ -619,6 +685,9 @@
     <t>President</t>
   </si>
   <si>
+    <t>gsapres</t>
+  </si>
+  <si>
     <t>Michael Scott</t>
   </si>
   <si>
@@ -631,16 +700,31 @@
     <t>Vice-President</t>
   </si>
   <si>
+    <t>gsavp</t>
+  </si>
+  <si>
     <t>Board of Directors</t>
   </si>
   <si>
+    <t>board</t>
+  </si>
+  <si>
     <t xml:space="preserve">J. Dylan Adkins, McCombs School of Business </t>
   </si>
   <si>
     <t xml:space="preserve">Board of Directors </t>
   </si>
   <si>
+    <t>pres</t>
+  </si>
+  <si>
     <t>Daily Texan Editor-InChief</t>
+  </si>
+  <si>
+    <t>eic</t>
+  </si>
+  <si>
+    <t>tsmboard</t>
   </si>
 </sst>
 </file>
@@ -708,10 +792,10 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -767,45 +851,63 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -834,755 +936,755 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1600,611 +1702,848 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>140</v>
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>140</v>
+      <c r="A3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>140</v>
+      <c r="A4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="M22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>18</v>
+        <v>157</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>53</v>
+      <c r="A25" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
+      <c r="A26" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
+      <c r="A27" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>57</v>
+      <c r="A28" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
+      <c r="A29" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>56</v>
+      <c r="A30" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
+      <c r="A32" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>61</v>
+      <c r="A34" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>60</v>
+      <c r="A35" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>64</v>
+      <c r="A37" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
-        <v>62</v>
+      <c r="A38" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>165</v>
+      <c r="A40" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>69</v>
+      <c r="A42" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>78</v>
+      <c r="A47" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="M54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>89</v>
+      <c r="A58" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>90</v>
+      <c r="A59" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>92</v>
+      <c r="A60" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>88</v>
+      <c r="A61" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>91</v>
+      <c r="A63" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2221,124 +2560,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M2" s="1">
         <v>1.0</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>180</v>
+      <c r="N2" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
-        <v>182</v>
+      <c r="A3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>184</v>
+      <c r="A4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="M5" s="1">
         <v>1.0</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>183</v>
+      <c r="N5" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>111</v>
+      <c r="A7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8">
@@ -2358,82 +2718,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="N2" s="1">
         <v>2.0</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>120</v>
+      <c r="A4" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>121</v>
+      <c r="A5" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O5" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2449,124 +2822,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>107</v>
+      <c r="A2" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>109</v>
+      <c r="A3" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>110</v>
+      <c r="A4" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>112</v>
+      <c r="A5" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>108</v>
+      <c r="A6" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>111</v>
+      <c r="A7" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>115</v>
+      <c r="A9" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2583,68 +2986,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -54,6 +54,22 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D1">
+      <text>
+        <t xml:space="preserve">INSTEAD OF USING ||| PLEASE BREAK EACH LINE WITH &lt;br&gt;
+	-Jun Tan</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="218">
   <si>
@@ -510,32 +526,32 @@
     <t xml:space="preserve">Kallen Dimitroff &amp; Jesse Guadiana </t>
   </si>
   <si>
-    <t xml:space="preserve">We are Dimitroff- Guadiana and we are running to be your Student Body President and Vice President! 
-All little about us: 
-Kallen Dimitroff is a fourth year from Houston, TX. She has served the University through SG as a First Year, Liberal Arts and University-Wide Representative. She has worked on initiatives ranging from securing funding for the protected bike lane on the drag to getting students more time to pay off their financial bars during registration. She is passionate about the university and has a track record of getting things done for students. 
-Jesse Guadiana is a fourth year from Irving, TX. Jesse has spent his time on campus in the Multicultural Engagement Center as a member and executive officer in the Latino Community Affairs agency. As an Orientation Advisor and mentor to younger students Jesse has found his passion in advocating for underrepresented communities. 
-A little about the campaign: 
-We have been working for months to build a campaign worth believing in. Though our supporters come from different backgrounds we are all united around the idea that Student Government needs to improve for the betterment of the university. We believe more perspectives need to be brought into the legislative assembly room on Tuesday nights. We also believe that SG needs to spend more time working on issues that impact students and their daily lives. 
-Our platform consists of 6 points: 
-Free Transcripts 
-Affordable Housing
-Resources for First Generation Students
-Break UT’s Aramark Contract
-Better Parties
-Supporting Survivors of Sexual Assault.
+    <t xml:space="preserve">We are Dimitroff-Guadiana and we are running to be your Student Body President and Vice President!&lt;br&gt;
+A little about us:&lt;br&gt;
+Kallen Dimitroff is a fourth year from Houston, TX. She has served the University through SG as a First Year, Liberal Arts and University-Wide Representative. She has worked on initiatives ranging from securing funding for the protected bike lane on the drag to getting students more time to pay off their financial bars during registration. She is passionate about the university and has a track record of getting things done for students.&lt;br&gt;
+Jesse Guadiana is a fourth year from Irving, TX. Jesse has spent his time on campus in the Multicultural Engagement Center as a member and executive officer in the Latino Community Affairs agency. As an Orientation Advisor and mentor to younger students Jesse has found his passion in advocating for underrepresented communities.&lt;br&gt;
+A little about the campaign:&lt;br&gt; 
+We have been working for months to build a campaign worth believing in. Though our supporters come from different backgrounds we are all united around the idea that Student Government needs to improve for the betterment of the university. We believe more perspectives need to be brought into the legislative assembly room on Tuesday nights. We also believe that SG needs to spend more time working on issues that impact students and their daily lives.&lt;br&gt; 
+Our platform consists of 6 points: &lt;br&gt;
+1. Free Transcripts &lt;br&gt;
+2. Affordable Housing&lt;br&gt;
+3. Resources for First Generation Students&lt;br&gt;
+4. Break UT’s Aramark Contract&lt;br&gt;
+5. Better Parties&lt;br&gt;
+6. Supporting Survivors of Sexual Assault.&lt;br&gt;
 Each point is researched, actionable and most importantly - possible. To get more information on the points or learn more about the campaign check out our Facebook page and website: www.dimitroffguadiana.com.  We sincerely hope you decided to #RunWithUs! </t>
   </si>
   <si>
-    <t xml:space="preserve">Free transcripts|||A camp for 1st generations college students|||A permanent endowment for Voice Against Violence's Survivor's Fund|||Break UT's contract with Aramark|||Overturn city sounds ordinances to have live music in residential areas|||Sustainable Housing Affordability </t>
-  </si>
-  <si>
-    <t>History/Government|||Latin American Studies/Government</t>
+    <t xml:space="preserve">Free transcripts&lt;br&gt;A camp for 1st generation college students&lt;br&gt;A permanent endowment for Voice Against Violence's Survivor's Fund&lt;br&gt;Break UT's contract with Aramark&lt;br&gt;Overturn city sounds ordinances to have live music in residential areas&lt;br&gt;Sustainable Housing Affordability </t>
+  </si>
+  <si>
+    <t>History/Government&lt;br&gt;Latin American Studies/Government</t>
   </si>
   <si>
     <t>Seniors</t>
   </si>
   <si>
-    <t>www.dimitroffguadiana.com</t>
+    <t>http://www.dimitroffguadiana.com</t>
   </si>
   <si>
     <t>Kevin Helgren &amp; Binna Kim</t>
@@ -547,11 +563,11 @@
     <t>uwide</t>
   </si>
   <si>
-    <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government. 
+    <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government.&lt;br&gt;
 Let’s work together to achieve the change we want to see here at the Forty Acres. Vote Alex Tayoub for University-Wide Representative. Thank you and HOOK’EM HORNS!</t>
   </si>
   <si>
-    <t>Help UT empower the community of students with disabilities by expanding, promoting, and encouraging opportunities in research, leadership and careers.|||Establish a book voucher system so students can get the books they need from The Co-op and instead of paying out of pocket right there, the amount gets added to their What I Owe so financial aid and scholarships can pay for it.|||Create a task force of different members of the student body, faculty, and staff to create discussion, and come up with a variety of solutions regarding the issue of sexual assault/violence.||| Establish a more affordable meal plan for both on-campus and off-campus students.|||Make printing FREE.</t>
+    <t>Help UT empower the community of students with disabilities by expanding, promoting, and encouraging opportunities in research, leadership and careers.&lt;br&gt;Establish a book voucher system so students can get the books they need from The Co-op and instead of paying out of pocket right there, the amount gets added to their What I Owe so financial aid and scholarships can pay for it.&lt;br&gt;Create a task force of different members of the student body, faculty, and staff to create discussion, and come up with a variety of solutions regarding the issue of sexual assault/violence.&lt;br&gt; Establish a more affordable meal plan for both on-campus and off-campus students.&lt;br&gt;Make printing FREE.</t>
   </si>
   <si>
     <t>Economics</t>
@@ -585,7 +601,7 @@
 Currently, I serve in UT Senate and the Undergraduate Business Council because I believe that an active student voice is imperative for to maintain and encourage a successful learning environment. Thus, I hope to push our collective concerns and ideas at a university-wide level because I deeply care about student life issues at McCombs and across the University. Thank you, and I appreciate your support! #TuForYou</t>
   </si>
   <si>
-    <t>To work alongside the Undergraduate Business Council and Student Government and improve the McCombs printing maintenance problem to ensure that students can utilize services like other colleges on campus.||| To work alongside the Undergraduate Business Council and Student Government and increase much needed support and services for students pursuing entrepreneurship opportunities in Austin and beyond.
+    <t>To work alongside the Undergraduate Business Council and Student Government and improve the McCombs printing maintenance problem to ensure that students can utilize services like other colleges on campus.&lt;br&gt; To work alongside the Undergraduate Business Council and Student Government and increase much needed support and services for students pursuing entrepreneurship opportunities in Austin and beyond.
 </t>
   </si>
   <si>
@@ -718,7 +734,7 @@
     <t>pres</t>
   </si>
   <si>
-    <t>Daily Texan Editor-InChief</t>
+    <t>Daily Texan Editor-In-Chief</t>
   </si>
   <si>
     <t>eic</t>
@@ -731,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -747,6 +763,11 @@
       <sz val="12.0"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -775,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -793,6 +814,12 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1793,22 +1820,22 @@
         <v>150</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>154</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>155</v>
       </c>
       <c r="K4" s="6"/>
@@ -1883,7 +1910,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1894,7 +1921,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1905,7 +1932,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1916,7 +1943,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1938,7 +1965,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1960,7 +1987,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -1971,7 +1998,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -1982,7 +2009,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -1993,7 +2020,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2004,7 +2031,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -2015,7 +2042,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -2026,7 +2053,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -2037,7 +2064,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2048,7 +2075,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2070,7 +2097,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -2081,7 +2108,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2092,7 +2119,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -2103,7 +2130,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -2114,7 +2141,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -2125,7 +2152,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -2147,7 +2174,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>58</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -2158,7 +2185,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2184,7 +2211,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -2195,7 +2222,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="9" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -2239,7 +2266,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>74</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -2250,7 +2277,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>179</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -2272,7 +2299,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -2327,7 +2354,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="9" t="s">
         <v>84</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -2349,7 +2376,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="9" t="s">
         <v>88</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -2360,7 +2387,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>87</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -2371,7 +2398,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>89</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -2382,7 +2409,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>86</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -2393,7 +2420,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -2404,7 +2431,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>82</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -2415,7 +2442,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -2426,7 +2453,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>85</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -2437,7 +2464,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>83</v>
       </c>
       <c r="M57" s="1" t="s">
@@ -2448,7 +2475,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
       <c r="M58" s="1" t="s">
@@ -2459,7 +2486,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -2470,7 +2497,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>98</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -2481,7 +2508,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="9" t="s">
         <v>94</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -2503,7 +2530,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="9" t="s">
         <v>97</v>
       </c>
       <c r="M63" s="1" t="s">
@@ -2547,7 +2574,11 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="J4"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2615,7 +2646,7 @@
       <c r="M2" s="1">
         <v>1.0</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>202</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2626,12 +2657,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>205</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2642,10 +2673,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="9" t="s">
         <v>207</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -2656,14 +2687,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="9"/>
       <c r="M5" s="1">
         <v>1.0</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="9" t="s">
         <v>206</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -2677,7 +2708,7 @@
       <c r="A6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="9" t="s">
         <v>201</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -2688,10 +2719,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -2789,7 +2820,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2800,7 +2831,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2868,7 +2899,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2882,7 +2913,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2893,7 +2924,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2904,7 +2935,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2915,7 +2946,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2926,7 +2957,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2948,7 +2979,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="1" t="s">

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -63,6 +63,8 @@
     <comment authorId="0" ref="D1">
       <text>
         <t xml:space="preserve">INSTEAD OF USING ||| PLEASE BREAK EACH LINE WITH &lt;br&gt;
+	-Jun Tan
+EACH LINE BREAK IN THEIR TEXT SHOULD BE &lt;br&gt;&lt;br&gt;
 	-Jun Tan</t>
       </text>
     </comment>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="267">
   <si>
     <t>race</t>
   </si>
@@ -514,25 +516,28 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Daniel James Chapman &amp; Austin James Robinson</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Daniel James Chapman &amp;amp; Austin James Robinson</t>
   </si>
   <si>
     <t>exec</t>
   </si>
   <si>
-    <t>Jonathan Dror &amp; Delisa Shannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kallen Dimitroff &amp; Jesse Guadiana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are Dimitroff-Guadiana and we are running to be your Student Body President and Vice President!&lt;br&gt;
-A little about us:&lt;br&gt;
-Kallen Dimitroff is a fourth year from Houston, TX. She has served the University through SG as a First Year, Liberal Arts and University-Wide Representative. She has worked on initiatives ranging from securing funding for the protected bike lane on the drag to getting students more time to pay off their financial bars during registration. She is passionate about the university and has a track record of getting things done for students.&lt;br&gt;
-Jesse Guadiana is a fourth year from Irving, TX. Jesse has spent his time on campus in the Multicultural Engagement Center as a member and executive officer in the Latino Community Affairs agency. As an Orientation Advisor and mentor to younger students Jesse has found his passion in advocating for underrepresented communities.&lt;br&gt;
-A little about the campaign:&lt;br&gt; 
-We have been working for months to build a campaign worth believing in. Though our supporters come from different backgrounds we are all united around the idea that Student Government needs to improve for the betterment of the university. We believe more perspectives need to be brought into the legislative assembly room on Tuesday nights. We also believe that SG needs to spend more time working on issues that impact students and their daily lives.&lt;br&gt; 
-Our platform consists of 6 points: &lt;br&gt;
+    <t>Jonathan Dror &amp;amp; Delisa Shannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kallen Dimitroff &amp;amp; Jesse Guadiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are Dimitroff-Guadiana and we are running to be your Student Body President and Vice President!&lt;br&gt;&lt;br&gt;
+A little about us:&lt;br&gt;&lt;br&gt;
+Kallen Dimitroff is a fourth year from Houston, TX. She has served the University through SG as a First Year, Liberal Arts and University-Wide Representative. She has worked on initiatives ranging from securing funding for the protected bike lane on the drag to getting students more time to pay off their financial bars during registration. She is passionate about the university and has a track record of getting things done for students.&lt;br&gt;&lt;br&gt;
+Jesse Guadiana is a fourth year from Irving, TX. Jesse has spent his time on campus in the Multicultural Engagement Center as a member and executive officer in the Latino Community Affairs agency. As an Orientation Advisor and mentor to younger students Jesse has found his passion in advocating for underrepresented communities.&lt;br&gt;&lt;br&gt;
+A little about the campaign:&lt;br&gt;&lt;br&gt; 
+We have been working for months to build a campaign worth believing in. Though our supporters come from different backgrounds we are all united around the idea that Student Government needs to improve for the betterment of the university. We believe more perspectives need to be brought into the legislative assembly room on Tuesday nights. We also believe that SG needs to spend more time working on issues that impact students and their daily lives.&lt;br&gt;&lt;br&gt;&lt;br&gt; 
+Our platform consists of 6 points: &lt;br&gt;&lt;br&gt;
 1. Free Transcripts &lt;br&gt;
 2. Affordable Housing&lt;br&gt;
 3. Resources for First Generation Students&lt;br&gt;
@@ -542,7 +547,7 @@
 Each point is researched, actionable and most importantly - possible. To get more information on the points or learn more about the campaign check out our Facebook page and website: www.dimitroffguadiana.com.  We sincerely hope you decided to #RunWithUs! </t>
   </si>
   <si>
-    <t xml:space="preserve">Free transcripts&lt;br&gt;A camp for 1st generation college students&lt;br&gt;A permanent endowment for Voice Against Violence's Survivor's Fund&lt;br&gt;Break UT's contract with Aramark&lt;br&gt;Overturn city sounds ordinances to have live music in residential areas&lt;br&gt;Sustainable Housing Affordability </t>
+    <t>Freshman</t>
   </si>
   <si>
     <t>History/Government&lt;br&gt;Latin American Studies/Government</t>
@@ -554,7 +559,7 @@
     <t>http://www.dimitroffguadiana.com</t>
   </si>
   <si>
-    <t>Kevin Helgren &amp; Binna Kim</t>
+    <t>Kevin Helgren &amp;amp; Binna Kim</t>
   </si>
   <si>
     <t>University-Wide Representative</t>
@@ -563,20 +568,76 @@
     <t>uwide</t>
   </si>
   <si>
-    <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government.&lt;br&gt;
+    <t>Student Government is in need of diversity! My goal is to fill that slot and bring forth actual representative leadership. Beyond shoring up the diversity void, I plan to actively push for a more visible legislature that actively showcases their meetings and makes a concerted effort to become more transparent to the student body. My goals in office will be as follows if elected:&lt;br&gt;&lt;br&gt;
+I will personally work within SG and the UT admin to look at affordability and housing issues.&lt;br&gt;&lt;br&gt;
+I will look into transparency issues and call for a more active role in advertising SG meetings and events. &lt;br&gt;&lt;br&gt; Finally, I want to include a wide range of opinions and ideas into legislation that comes straight from everyday students; I want to actually represent you and your ideas.&lt;br&gt;&lt;br&gt;
+I hope you come out and vote. I want to make UT great again and together we can!
+</t>
+  </si>
+  <si>
+    <t>Affordability: I want to work within SG and the UT administration on tuition increases. Affordable housing is also a priority.&lt;br&gt;&lt;br&gt;   
+Transparency: I want to reach out to the student by holding office hours and big town hall events. Making SG visible to the average student.&lt;br&gt;&lt;br&gt;   
+Diversity: I want to bring a representative voice to the assembly, I will not be a token Hispanic, but an active member.</t>
+  </si>
+  <si>
+    <t>History, Uteach-Liberal Arts</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>shlopez13</t>
+  </si>
+  <si>
+    <t>My name is Connor Madden and I am pleased to announce my candidacy for University-Wide Representative in the Student Government Assembly. Over the course of the next two weeks you’ll have the opportunity to get to know the candidates and decide who will best represent your interests as an assembly member next year. I would cherish the opportunity to serve my fellow students in this capacity and I hope you’ll give me the chance to do so. 
+I am a Plan II and Business major from Dallas, TX. Over the course of the past year I have been involved with Student Government as a Liberal Arts Representative and through the Longhorn Advocates program. I look forward to meeting many of you (if I haven’t already) through the campaigning process.
+Thanks and Hook 'Em!
+</t>
+  </si>
+  <si>
+    <t>CIVIC ENGAGEMENT- Providing students with information and resources as they arrive on campus or during orientation. This year’s general election presents a tremendous opportunity to encourage student participation and increase voter turnout. &lt;br&gt;&lt;br&gt;
+COMMUNITY SERVICE- Working with professors and administrative staff to include community service as part of their course curriculum. Promoting student leadership in the community through volunteerism and activism. 
+&lt;br&gt;&lt;br&gt;
+STUDENT HEALTH/SAFETY- Supporting initiatives that improve students’ access to and awareness of health care resources. Assisting CMHC outreach and educational efforts. Identifying areas around campus where student safety is a concern and exploring possible solutions.
+</t>
+  </si>
+  <si>
+    <t>Plan II Honors &amp;amp; Business (Management)</t>
+  </si>
+  <si>
+    <t>Sophomore</t>
+  </si>
+  <si>
+    <t>VoteMadden</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/959161137491319/</t>
+  </si>
+  <si>
+    <t>Hi Longhorns! My name is Drew Orland, and I'm a second-year Economics major from Plano, TX.&lt;br&gt;&lt;br&gt;
+I think the most important thing an SG representative can bring to the table is a thorough understanding of the student body. Through my involvement in so many different programs and organizations around campus, I have obtained a multifaceted perspective of campus that incorporates the interests of so many diverse groups of students.&lt;br&gt;&lt;br&gt;
+The thing that I believe prepares me best for SG and the thing I am most proud of from my time at UT so far is my role as Director of the Guild of Carillonneurs, playing the bells at the top of the Tower. Not just because it is so fun, but because it gives me a chance to interact with students on a daily basis in a way that produces tangible results. It's fun to go up and play fancy classical music, but my favorite part of the job is playing songs that students request. In this way I feel like I get to represent you from the top of the Tower every day, and now I'd like the chance to represent you in Student Government as well.
+Thanks, and Hook 'em Horns!
+</t>
+  </si>
+  <si>
+    <t>Connecting to the UT/Austin Community – Helping students feel at home at UT and in Austin&lt;br&gt;&lt;br&gt;  COMMUNITY SERVICE : One of the best ways to explore Austin is by volunteering with local charities and non-profits to benefit the greater Austin community. I think the university should offer more opportunities and make it easier for students to volunteer around Austin.&lt;br&gt;&lt;br&gt;  EARLY INVOLVEMENT : Because UT is such a big school, it’s often too easy for incoming students to fall through the cracks and feel like just another face in the crowd. If we push organization and program involvement more at Orientation and early on in the school year, we can make it easier for freshmen and transfer students to find a small community that makes campus feel like home.&lt;br&gt;&lt;br&gt;VOTER REGISTRATION : UT can combat the often low voter turnout of college-aged citizens by making voter registration more accessible to its students. One of the most effective ways we can make this a reality is by offering more opportunities to register as a voter in highly trafficked areas of campus and as part of programs that every student participates in, like Orientation.&lt;br&gt;&lt;br&gt;DIVERSITY AWARENESS : UT is a diverse campus in many ways, with students coming from all different kinds of backgrounds and identities. I believe the University should respect and accommodate these differences whenever possible. As your representative, I would work to make the university more LGBTQ-friendly in the way it interacts with and accommodates students. I believe the university should also do a better job addressing race-related incidents that make campus feel less welcome to minority students.</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/685701271569685/</t>
+  </si>
+  <si>
+    <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government.&lt;br&gt;&lt;br&gt;
 Let’s work together to achieve the change we want to see here at the Forty Acres. Vote Alex Tayoub for University-Wide Representative. Thank you and HOOK’EM HORNS!</t>
   </si>
   <si>
     <t>Help UT empower the community of students with disabilities by expanding, promoting, and encouraging opportunities in research, leadership and careers.&lt;br&gt;Establish a book voucher system so students can get the books they need from The Co-op and instead of paying out of pocket right there, the amount gets added to their What I Owe so financial aid and scholarships can pay for it.&lt;br&gt;Create a task force of different members of the student body, faculty, and staff to create discussion, and come up with a variety of solutions regarding the issue of sexual assault/violence.&lt;br&gt; Establish a more affordable meal plan for both on-campus and off-campus students.&lt;br&gt;Make printing FREE.</t>
   </si>
   <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Freshman</t>
-  </si>
-  <si>
-    <t>@tayoub4uwr</t>
+    <t>tayoub4uwr</t>
   </si>
   <si>
     <t>http://www.facebook.com/alxtayoub</t>
@@ -594,7 +655,18 @@
     <t>mccombs</t>
   </si>
   <si>
-    <t>Ramanika Upneja</t>
+    <t xml:space="preserve">To me, having a chance to represent the school that accepted me and will shape the upcoming years of my life is the best way that I can give back. If I am elected, I will bring to this position dedication to the general improvement of the campus as a whole. As a member of the Undergraduate Business Council and the Senate of College Councils, I have had the opportunity to take leadership roles in gauging the needs of students in both McCombs and around the campus. I will bring a commitment to continuing to foster a strong collaborative atmosphere between McCombs and the other schools that make up this university. I hope I prove to be a valuable asset through which the voices of students can clearly be heard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work to foster a collaborative atmosphere between McCombs and the other schools that make up this campus&lt;br&gt;&lt;br&gt;
+Ensure that minority students are able to aptly have their voices in heard in student issues concerning McCombs and the university in general&lt;br&gt;&lt;br&gt;
+Promote open and free lines of communication that includes the students, faculty, their representatives </t>
+  </si>
+  <si>
+    <t>Business (Undeclared) and Government</t>
+  </si>
+  <si>
+    <t>Dhrov &amp;quot;Drew&amp;quot; Subramanian</t>
   </si>
   <si>
     <t>Hello! My name is Vivianne Tu, and I am running for this position because I strive to strengthen the diverse, passionate, and unique voice of McCombs in our student government. McCombs students cultivate an outstanding culture of innovation, hard work, and passion, and it would be my greatest honor to serve as the bridge between the voice of McCombs students and Student Government. 
@@ -608,18 +680,56 @@
     <t>https://www.facebook.com/Tu4You</t>
   </si>
   <si>
+    <t>Ramanika Upneja</t>
+  </si>
+  <si>
     <t>Communications Representative</t>
   </si>
   <si>
     <t>comm</t>
   </si>
   <si>
+    <t xml:space="preserve">If you attend the Moody College of Communication, you are important. As a Longhorn Legislative Aide in UTSG and a member of the Communication Council, I am aware of our college’s reputation on campus. As your representative, I am ready to make decisions with you that will make our experience at Moody a better one. The time is now to have a representative who is both excited and enthusiastic about what they can do to give back to the Moody College of Communication. The decision is now yours! “Comm together” March 2 and 3 on utexasvote.org and vote for me as your Communication Representative. </t>
+  </si>
+  <si>
+    <t>1. “BMC – our open home, open longer” – If elected, I hope to adjust current facility hours at the Belo Center for New Media. My goal is to change the closing time from 11pm to 12am, during the workweek. This would give students a more comfortable option for late-night studying&lt;br&gt;&lt;br&gt;
+2. “Cappy’s Place – a place for Bevo Bucks” – We all love Cappy’s Place located in BMC, but as your representative I will increase talks on having Cappy’s Place (and more of your favorite local merchants) use the Bevo Bucks payment system&lt;br&gt;&lt;br&gt;
+3. “Moody Mentors” – a tentative idea for a program that matches Moody undergrads with “Moody Mentors” who are older than them. The mentors would either be in graduate school or in opportunities within Moody that younger students might be interested in learning more about (UTLA, Senior Fellows, or the Annette Strauss Institute are just a few examples)&lt;br&gt;&lt;br&gt;
+4. “Comm Together” – I am calling all majors and students from all backgrounds to converge together and share you ideas and visions for the Moody College of Communication with me. I cannot do this job alone. If elected, I will hold daily office hours in the Student Leadership Suite of BMC to hear your concerns!
+</t>
+  </si>
+  <si>
+    <t>Communication Studies, Corporate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshman </t>
+  </si>
+  <si>
+    <t>votestevencomm</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/steven.santoyo</t>
+  </si>
+  <si>
     <t>Education School Representative</t>
   </si>
   <si>
     <t>edu</t>
   </si>
   <si>
+    <t>My name is Lindsey Pearlstein and I am a junior from Boston, Massachusetts, studying Applied Learning and Development (Generalist). I am currently participating in the Literacy Cohort for the Professional Development Sequence. Additionally, I am receiving a certificate in Public Policy through the Bridging Disciplines Program. I will aim to create change within the college by combining my passion for education with my interest in policy. As the College of Education Representative, I would advocate to increase diversity within the college and to expand communication between the Department of Curriculum and Instruction and the Department of Kinesiology and Health Education.
+&lt;br&gt;&lt;br&gt;
+Feel free to ask me any questions in person or by email at lindseypearlstein@utexas.edu.
+&lt;br&gt;&lt;br&gt;
+Thank you for your consideration!</t>
+  </si>
+  <si>
+    <t>Applied Learning and Development</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
     <t>Engineering School Representative</t>
   </si>
   <si>
@@ -665,21 +775,72 @@
     <t>Alexendra Thomas</t>
   </si>
   <si>
+    <t xml:space="preserve">Students attend the University of Texas for two main reasons. One is to receive an elite education in preparation for entrance into the job field. The other is to create enduring and meaningful relationships with students and faculty. As a representative of the College of Liberal Arts, I will improve both of these aspects of student life. Creating an alumni lecture series and an annual tour of the Capitol for juniors and seniors will lower concerns about finding jobs. Increasing COLA’s social media presence and forming more social events and organizations will allow students to identify peers with whom they have common interests, build study groups, and more. I have experience in leadership, extensive involvement in social life at UT, and prior familiarity with Student Government. Your vote will enable me to improve the everyday lives of hundreds of COLA students. </t>
+  </si>
+  <si>
+    <t>I would aim to provide more lectures from alumni about their careers and how they obtained success in the job field.
+&lt;br&gt;&lt;br&gt;
+I would aim to connect students to students through tailgates, social gatherings, and Facebook groups.
+&lt;br&gt;&lt;br&gt;
+I would aim to enact an annual Senior Shadow Day in which
+each incoming freshman could shadow a senior’s class day.
+&lt;br&gt;&lt;br&gt;
+I would aim to plan an annual one-day Capitol tour for juniors and seniors.</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexandraa_7 </t>
+  </si>
+  <si>
     <t>Natural Sciences Representative</t>
   </si>
   <si>
     <t>cns</t>
   </si>
   <si>
+    <t>My name is Ramsey Hashem and I want to serve you as College of Natural Sciences Representative. During my time as a Longhorn Legislative Aide this year, I’ve attended every Student Government meeting, learning how UTSG works and working with my fellow LLAs, Representatives, and Executive Board members on various projects. I’ve gotten to see all that UTSG is capable of, including outstanding accomplishments ranging from the removal of the Jefferson Davis statue to increased support for sexual assault victims to more food trucks on campus. As Natural Sciences Representative, I want to keep doing the things that have put UT at the forefront of positive change, while reducing the disharmony that arises far too often in Student Government. My aim is to ensure that the College of Natural Sciences continues producing the influential research and making the groundbreaking discoveries that prove time and time again that CNS has some of the most innovative and brightest students at one of the best universities in the world.&lt;br&gt;&lt;br&gt; 
+I want to accomplish this in four major ways: by increasing and sustaining engagement between all of the CNS Representatives and the students they represent, supporting more intuitive course listings, educating non-CS majors about the many computer science resources online and elsewhere, and providing more opportunity for engagement between students and alumni. Above all else, I pledge to be your advocate whenever and wherever I can. I don’t want to be a faceless Representative whose name hardly anyone knows. On the contrary, I will be constantly interacting with and hearing the concerns of Natural Sciences students, no matter what the issue. If you want someone who will ensure your voice is heard, I’m the candidate who will do so and who will hold the other CNS Representatives accountable as well. 
+&lt;br&gt;&lt;br&gt;
+If I haven’t yet earned your vote, perhaps a rousing science joke will win you over: A police officer pulls Heisenberg over and asks him, “Do you know how fast you were going?” Heisenberg replies, “No, but I know where I am.” 
+&lt;br&gt;&lt;br&gt;
+Thank you so much and please don’t hesitate to reach out to me on social media, at my email (ramseyhashem@utexas.edu) or on Club Penguin. And don’t forget to vote! #Ram4CNS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ensure more engagement between student government and the students they represent through weekly forums and updates. One of the biggest concerns I have regarding student government is the apparent disconnect between Representatives and their constituents. Too much disengagement between Student Government and the student body is occurring, and the way to start changing that dynamic is by consistently listening to the ideas of the students and by keeping them informed of Student Government activities.&lt;br&gt;&lt;br&gt;Support an easier way for students to see their degree plans and the classes they can and likely should be taking. Most students realize that they can take classes that overlap for requirements regarding a minor/certificate and that there are ways to squeeze in that spring semester in Italy or Australia, but finding out what those courses are is not as seamless as it could be. Revamping the way students see their degree plans and the courses they can (and probably should) take would allow students to more efficiently plan their schedules and would make meetings with academic advisors more productive.&lt;br&gt;&lt;br&gt;Increase access to computer science resources for non-CS majors. Having programming skills is becoming increasingly important for employers, especially for those in the sciences. Many students understand this, but unfortunately it is difficult for them to get into CS classes due to high popularity. I will support educating non-CS majors about the resources for gaining programming skills, as there are several outstanding ways to learn how to code online for free.&lt;br&gt;&lt;br&gt; Provide more opportunities for students to meet with alumni of their department. Many students at one time or another are faced with uncertainty and doubt regarding their major and career path. Having more access to alumni from a student’s same department would provide students with advice and insight from those who once tread the same path.</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>RamseyHashem</t>
+  </si>
+  <si>
     <t>Nursing School Representative</t>
   </si>
   <si>
+    <t>nursing</t>
+  </si>
+  <si>
     <t>Social Work School Representative</t>
   </si>
   <si>
     <t>sw</t>
   </si>
   <si>
+    <t xml:space="preserve">My name is Griffin Olesky and I am running to be your Undergraduate Studies Representative.  As students in UGS, we are all well aware that our time here is limited and that we have to be thinking constantly about where we want to go next. I want to make your experience in UGS as enjoyable as possible and in turn make your transition to your next school seamless. If elected, I will work closely with the Student Government, as well as the Dean of UGS, to make sure that your opinions and ideas are heard.  I often think about how lucky I am to be in UGS because, honestly, I have no idea what I want to do with my life and with this school I actually have time to think about it.  The world is my oyster and if you vote for me, it can be yours too!  </t>
+  </si>
+  <si>
+    <t>Increase transparency between Student Government and the UGS student body.&lt;br&gt;&lt;br&gt;Improve the transition process from UGS to whatever school is right for each student.&lt;br&gt;&lt;br&gt;
+Create a simple platform for UGS students to voice their opinions. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undeclared </t>
+  </si>
+  <si>
     <t>School of Undergraduate Studies Representative</t>
   </si>
   <si>
@@ -692,6 +853,9 @@
     <t>Running With</t>
   </si>
   <si>
+    <t>Michael Scott</t>
+  </si>
+  <si>
     <t>Wills Brown</t>
   </si>
   <si>
@@ -704,9 +868,6 @@
     <t>gsapres</t>
   </si>
   <si>
-    <t>Michael Scott</t>
-  </si>
-  <si>
     <t>Warner Cook</t>
   </si>
   <si>
@@ -719,25 +880,57 @@
     <t>gsavp</t>
   </si>
   <si>
+    <t xml:space="preserve">J. Dylan Adkins, McCombs School of Business </t>
+  </si>
+  <si>
     <t>Board of Directors</t>
   </si>
   <si>
     <t>board</t>
   </si>
   <si>
-    <t xml:space="preserve">J. Dylan Adkins, McCombs School of Business </t>
+    <t>As a Brand Ambassador of the Co-Op, you've seen Alexa take over the Co-Op's Snapchat and be featured on their Instagram. &lt;br&gt;&lt;br&gt;As an employee of the Co-Op, you've had Alexa help you find an item or as your cashier. 
+&lt;br&gt;&lt;br&gt;As a member of the Co-Op's Board of Directors, you'll see Alexa give your organization funding and help you get your rebate cards.
+&lt;br&gt;&lt;br&gt;Vote for Alexa! She knows the Co-Op!</t>
+  </si>
+  <si>
+    <t>Expand student knowledge about rebate cards and the opportunity for organization funding.&lt;br&gt;&lt;br&gt;Help the Co-Op become an even more influential leader as the #1 college bookstore in America.</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>http://tinyurl.com/CoOpAlexa</t>
   </si>
   <si>
     <t xml:space="preserve">Board of Directors </t>
   </si>
   <si>
-    <t>pres</t>
+    <t>unionboard</t>
+  </si>
+  <si>
+    <t>Helen Yang</t>
+  </si>
+  <si>
+    <t>unionpres</t>
   </si>
   <si>
     <t>Daily Texan Editor-In-Chief</t>
   </si>
   <si>
+    <t>My name is Alexander Chase, and I am excited to be running to be Editor-in-Chief of The Daily Texan. I will bring my experience working as a columnist and an associate editor to the position, and do my best to better every writer who comes into our office. In what promises to a tenuous year filled with hot-button issues, I will value the opinion of every student on campus, and do my best to promote an atmosphere of cooperation and understanding on campus.</t>
+  </si>
+  <si>
+    <t>Plan II, Economics</t>
+  </si>
+  <si>
+    <t>alexwchase</t>
+  </si>
+  <si>
     <t>eic</t>
+  </si>
+  <si>
+    <t>TSM Board &amp;#47; Moody College Place 2</t>
   </si>
   <si>
     <t>tsmboard</t>
@@ -796,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -826,7 +1019,13 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1723,7 +1922,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
@@ -1770,10 +1974,13 @@
       <c r="N1" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1790,12 +1997,12 @@
         <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1812,31 +2019,31 @@
         <v>24</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>150</v>
+      <c r="A4" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="7" t="s">
         <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1844,12 +2051,12 @@
         <v>24</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1866,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
@@ -1874,72 +2081,60 @@
         <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11">
@@ -1947,109 +2142,157 @@
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2057,54 +2300,91 @@
         <v>33</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>42</v>
+      <c r="A23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
+      <c r="A24" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="M25" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -2112,179 +2392,211 @@
         <v>56</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>169</v>
+      <c r="A31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>66</v>
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>64</v>
+      <c r="A36" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>70</v>
+      <c r="A37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>68</v>
+      <c r="A38" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
-        <v>74</v>
+      <c r="A39" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
@@ -2292,142 +2604,142 @@
         <v>71</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>75</v>
+      <c r="A42" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>78</v>
+      <c r="A46" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>191</v>
+      <c r="A48" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54">
@@ -2435,10 +2747,10 @@
         <v>82</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55">
@@ -2446,131 +2758,162 @@
         <v>90</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>85</v>
+      <c r="A56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>96</v>
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>92</v>
+      <c r="A62" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>97</v>
+      <c r="A63" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2627,10 +2970,10 @@
         <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>145</v>
@@ -2640,96 +2983,91 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="A2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.0</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="M3" s="9"/>
       <c r="N3" s="9" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="B5" s="9"/>
       <c r="M5" s="1">
         <v>1.0</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
@@ -2788,35 +3126,51 @@
         <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="1">
         <v>2.0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -2824,10 +3178,10 @@
         <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
@@ -2835,9 +3189,16 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="O6" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2859,7 +3220,7 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>134</v>
@@ -2900,16 +3261,16 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -2917,65 +3278,65 @@
         <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>118</v>
+      <c r="A5" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>114</v>
+      <c r="A6" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>111</v>
+      <c r="A8" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -2989,7 +3350,7 @@
         <v>1.0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
@@ -3000,7 +3361,7 @@
         <v>120</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3384,7 @@
         <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>134</v>
@@ -3067,13 +3428,25 @@
         <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -3081,13 +3454,13 @@
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="532">
   <si>
     <t>race</t>
   </si>
@@ -504,12 +504,6 @@
     <t>Campaign Website</t>
   </si>
   <si>
-    <t>DT Coverage Titles</t>
-  </si>
-  <si>
-    <t>DT Coverage URL</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -522,10 +516,39 @@
     <t>Daniel James Chapman &amp;amp; Austin James Robinson</t>
   </si>
   <si>
+    <t>Howdy! We are DANIEL JAMES CHAPMAN and AUSTIN JAMES ROBINSON, and we're running for SG Executive Alliance! Our platform focuses on issues that directly impact you: strengthening mental health resources, addressing sexual assault, creating real inclusivity on campus and addressing UT's racist history, making your college experience more affordable, and more basketballs. If elected, we will give YOU more direct control of student government. We will give your resumes and business cards to any and all important people we meet - this goes for all 50,000+ of you. You can give us your mixtapes too. We will do (almost) anything you want us to do! This election, vote for the alternative. Vote for the team with the same middle name. Vote for us, because we give a shit!</t>
+  </si>
+  <si>
+    <t>1. Create real inclusivity at UT and address UT's history of racism.&lt;br&gt;&lt;br&gt;
+2. Strengthen mental health resources on campus.&lt;br&gt;&lt;br&gt; 
+3. Strengthen relations with the City of Austin and the State Legislature.&lt;br&gt;&lt;br&gt;  
+4. Make UT more environmentally sustainable and make water conservation a priority.&lt;br&gt;&lt;br&gt;  
+5. Increase fiscal transparency within the UT administration.&lt;br&gt;&lt;br&gt; 
+6. Make UT more affordable by making blue-books free and providing more housing scholarships.&lt;br&gt;&lt;br&gt; 
+7. Address and lessen sexual assault by including Voices Against Violence materials into more event and organization orientations, and also address the underlying culture at UT that allows sexual assault to exist.&lt;br&gt;&lt;br&gt; 
+8. Enable more direct democracy within Student Government. 
+</t>
+  </si>
+  <si>
+    <t>Chapman Robinson</t>
+  </si>
+  <si>
+    <t>Rachel Zein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economics and Mathematics&lt;br&gt;&lt;br&gt;English-UTeach and Youth and Community Studies </t>
+  </si>
+  <si>
+    <t>Senior&lt;br&gt;&lt;br&gt;Junior</t>
+  </si>
+  <si>
+    <t>WeGiveAShit2016</t>
+  </si>
+  <si>
+    <t>http://www.wegiveashit.school/</t>
+  </si>
+  <si>
     <t>exec</t>
-  </si>
-  <si>
-    <t>Jonathan Dror &amp;amp; Delisa Shannon</t>
   </si>
   <si>
     <t xml:space="preserve">Kallen Dimitroff &amp;amp; Jesse Guadiana </t>
@@ -547,25 +570,218 @@
 Each point is researched, actionable and most importantly - possible. To get more information on the points or learn more about the campaign check out our Facebook page and website: www.dimitroffguadiana.com.  We sincerely hope you decided to #RunWithUs! </t>
   </si>
   <si>
+    <t xml:space="preserve">1. Free transcripts&lt;br&gt;&lt;br&gt;
+2. A camp for 1st generations college students&lt;br&gt;&lt;br&gt;
+3. A permanent endowment for Voice Against Violence's Survivor's Fund&lt;br&gt;&lt;br&gt;
+4. Break UT's contract with Aramark&lt;br&gt;&lt;br&gt;
+5. Overturn city sounds ordinances to have live music in residential areas&lt;br&gt;&lt;br&gt;
+6. Sustainable Housing Affordability  </t>
+  </si>
+  <si>
+    <t>Dimitroff Guadiana</t>
+  </si>
+  <si>
+    <t>History/Government&lt;br&gt;Latin American Studies/Government</t>
+  </si>
+  <si>
+    <t>Seniors</t>
+  </si>
+  <si>
+    <t>http://www.dimitroffguadiana.com</t>
+  </si>
+  <si>
+    <t>Jonathan Dror &amp;amp; Delisa Shannon</t>
+  </si>
+  <si>
+    <t>We are Jonathan Dror and Delisa Shannon. From DKR to the SAC, we bring together two very different student experiences on these Forty Acres in hopes of benefitting current and future Longhorns. As a first-generation college student, Jonathan knows how overwhelming it is to be successful while navigating the ins and outs of The university system. With Delisa being a student athlete, she understands how hard it can be to balance time and commitments at UT. During our time at UT, we have witnessed Student Government initiatives that benefit students across campus and understand the potential impact students make when they make their voices heard. We realize how much more we want to offer the university and our peers. Though we bring two completely different student experiences to the table, we know that our greatest strength is that, ultimately, we are students doing this for students.&lt;br&gt;&lt;br&gt;We want to encourage more student engagement in events on campus through our Longhorn Fever initiative. Our platform also includes simple but effective ways to improve every student's college experience. Being a student is challenging enough; Student Government has the opportunity to make that experience easier– from simplifying the class registration process to improving transportation options for students from North Campus and Riverside. Extending the SAC hours to be 24/5 and instituting game-day shuttles to help students get to the stadium safely should be no-brainers. Being a student has its many challenges, but we want to initiate change that will make things simpler on the Forty Acres. We’re ready to Turn Up TX, are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longhorn Fever- We want to engage students. This initiative is a point-based program to reward students for getting involved with on campus events. From athletic events to lectureship series, we want students on campus, getting involved.&lt;br&gt;&lt;br&gt;Campus Plug- Fostering conversations from student leaders all over campus is important to us. Every student comes from a different background– we should learn from each other's experiences to get a better understanding of our own.&lt;br&gt;&lt;br&gt;Students 4 Students- Four points to make students' lives easier. We want to implement an easier class registration process, later and healthier food options, accessibility for disabled students and gender neutral bathrooms to enhance the student experience on campus.&lt;br&gt;&lt;br&gt;Transportation- Shuttles for game-day to DKR, Erwin Center and Frank Denius Fields from North Campus, West Campus and Riverside. We also want more access in underutilized lots on campus.&lt;br&gt;&lt;br&gt;Expand Sanger Learning Center- We want to expand Sanger to include upper division coursework– also including GRE, LSAT and MCAT prep.&lt;br&gt;&lt;br&gt;Sexual Assault- We think it's important to start addressing sexual assault as soon as students arrive on campus. Implementing a program through First Year Interest Groups to get the conversation started is a great way to begin.&lt;br&gt;&lt;br&gt; 24/5 SAC- We want to make the SAC 24/5 to create additional study spaces on campus.&lt;br&gt;&lt;br&gt; Mental Health Awareness- Coming to college is a huge transition. We want to implement an online program like My Alcohol Edu that all freshman must take that makes them aware of the services on campus, and let's them know that mental health is normal to talk about. More conversation is required to get rid of the stigma around mental health. </t>
+  </si>
+  <si>
+    <t>Dror Shannon</t>
+  </si>
+  <si>
+    <t>Melysa Barth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economics&lt;br&gt;&lt;br&gt;Journalism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juniors </t>
+  </si>
+  <si>
+    <t>drorshannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.turnuptx.com </t>
+  </si>
+  <si>
+    <t>Kevin Helgren &amp;amp; Binna Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our names are Kevin Helgren and Binna Kim, and we’re running to be your next Student Body President and Vice President. Our campaign is centered around the power of storytelling. We, as students, come from various backgrounds and from different walks of life, but we all have one very simple thing in common: a story.&lt;br&gt;&lt;br&gt;Your stories serve as the foundation upon which our platform is built. In listening to the stories students have already shared, we’ve decided to focus on five key issues. First, we promise to actively combat sexual assault on campus and in the surrounding area. 1 in 5 women have been sexually assaulted during their time here – it’s time to face the facts. Next, we want to highlight the importance of belonging. There are so many ways to make a big campus feel intimate – it’s time to build a home. Third, we hope to create greater access to healthier lifestyles. A healthy student is a good student, so let’s bring more options for wellness to the table – it’s time to commit to health. Next, we want to foster an inclusive campus climate for all students. Regardless of race, religion, class or creed, your identity deserves inclusion – it’s time to represent our reality. Lastly, we pledge to fuel conversations about mental health. As students, we struggle with mental health a lot more than we talk about it, but we’re not alone. We want to eliminate the stigma – it’s time to normalize what’s normal. For more information on the tangible solutions we hope to implement, visit our website at www.kevinbinna2016.com.&lt;br&gt;&lt;br&gt;We believe that every story can and should spark positive change on our campus. This is more than a campaign for two candidates – this is a movement for thousands of students. Join our movement by sharing your story.        </t>
+  </si>
+  <si>
+    <t>1. Issue: SEXUAL ASSAULT. 1 in 5 UT women have been sexually assaulted during their time here. Sexual assault plagues college campuses across the country. We want to bring this conversation to the national stage. It’s time to face the facts.&lt;br&gt;&lt;br&gt;Solutions:&lt;br&gt;&lt;br&gt;
+-Mainstream communication between organizations and movements such as Voices Against Violence, BeVocal, Not On My Campus, and the Women's Resource Agency by way of a working group. This working group will consist of representatives from each of these entities, as well as members of other organizations dedicated to addressing sexual assault.​
+-Create a national dialogue about the importance of actively seeking a culture shift in our perspective on sexual assault by enlisting the help of student leaders from universities across the country through a national conference.&lt;br&gt;&lt;br&gt;
+2. Issue: TRANSITIONS. When you step foot on campus for the very first time, you should know that you belong to something so much bigger than yourself. The transition to UT can be hard, so let’s change how we look at change. It’s time to build a home. ​&lt;br&gt;&lt;br&gt;
+Solutions:&lt;br&gt;&lt;br&gt;
+-Work with Transfer-Year Experience Program to establish a mentorship program in which every single new transfer student is paired with an older transfer student. Additionally, we want to extend orientation for transfer students (1 day --&gt; 3 days) so as to allow for the transmission of more information on available resources.&lt;br&gt;&lt;br&gt;
+-Encourage students to get involved in something they're passionate about by making opportunities more convenient for them -- host midnight organization and resource fairs, and encourage career fairs and study abroad fairs to extend their hours.&lt;br&gt;&lt;br&gt;
+-Bridge the gap between the University and the city of Austin by offering (and highly recommending students participate in) service-based learning opportunities during orientation sessions.&lt;br&gt;&lt;br&gt;
+3. Issue: HEALTH. Between classes, work, and meetings, college students often neglect their health. A healthy student is a good student, so let’s bring more options for wellness to the table. It’s time to commit to health.&lt;br&gt;&lt;br&gt;
+Solutions:&lt;br&gt;&lt;br&gt;
+-Work with UT Microfarm to expand their student-led farmer's market in order to make fresh and locally grown produce readily available to students.&lt;br&gt;&lt;br&gt;
+-Create greater access to healthy, kosher, and halal food options in order to satisfy the dietary needs of more students.&lt;br&gt;&lt;br&gt;
+Improve availability and affordability of exercise programs for students during periods of high stress (e.g., mid-terms and finals).&lt;br&gt;&lt;br&gt;
+4. Issue: INCLUSION. All walks of life - races, religions, classes and creeds - converge here. Advocating for students means looking to the small groups that make up the bigger picture. Your identity deserves inclusion. It's time to represent our reality.&lt;br&gt;&lt;br&gt;
+Solutions:&lt;br&gt;&lt;br&gt;
+-Create a Campus Climate Board so as to give students coming from different parts of campus an opportunity to engage in conversation alongside administrators, meeting once a month and in the event of an emergent issue on campus.&lt;br&gt;&lt;br&gt;
+-Work with administrators to clearly define what constitutes an act of discrimination in the Student Handbook and outline the consequences that accompany these acts.&lt;br&gt;&lt;br&gt; 
+-Repair sidewalks and streets in our area by working with the City of Austin to prioritize issues concerning accessibility near and throughout campus.&lt;br&gt;&lt;br&gt;
+5. Issue: MENTAL HEALTH. As students, we struggle with mental health a lot more than we talk about it, but know that you’re not the only one. The stigma is oppressive, and we want eliminate it. It’s time to normalize what’s normal.&lt;br&gt;&lt;br&gt;
+Solutions:&lt;br&gt;&lt;br&gt;-Strengthen relationship between Division of Housing and Food Services (DHFS) and the Counseling and Mental Health Center (CMHC) to ensure that a convenient, easy-to-read list of resources can be found on every desk, in every room, in each of the fourteen residence halls on campus.&lt;br&gt;&lt;br&gt;
+-Advocate for a second MindBody Lab in the Student Activity Center, as the building is centrally located and popular among students. In doing so, students would have greater access to methods by which they may learn to cope with stress.&lt;br&gt;&lt;br&gt;
+-Actively fight the stigma surrounding mental illness by initiating a week-long campaign called "Stick it to Stigma." Each day of the initiative will look a little bit different than the last -- resource fair, mental health research symposium, student speaker series, etc.</t>
+  </si>
+  <si>
+    <t>Helgren Kim</t>
+  </si>
+  <si>
+    <t>Chris Uhlig Photography</t>
+  </si>
+  <si>
+    <t>Neuroscience, Psychology&lt;br&gt;&lt;br&gt;Liberal Arts Honors/Marketing</t>
+  </si>
+  <si>
+    <t>kevinbinna_2016</t>
+  </si>
+  <si>
+    <t>www.kevinbinna2016.com</t>
+  </si>
+  <si>
+    <t>Hi! My name is Aaron Arnett and I am currently a freshman in the McCombs School of Business. I’ve been actively involved in student government as a first-year representative and want to continue representing students. This year, I have introduced legislation affecting first-year elections and tax-free textbooks. Next year, I want to continue with tax-free textbooks and introduce support for the expansion of the bike-sharing program. These are tangible goals that we can achieve together next year, and I really do mean “together.”  Thank you for your support.</t>
+  </si>
+  <si>
+    <t>1. Tax-free textbooks&lt;br&gt;&lt;br&gt;2. Expansion of Bike-Sharing&lt;br&gt;&lt;br&gt;3. Increased interaction Between Student Government and students</t>
+  </si>
+  <si>
     <t>Freshman</t>
   </si>
   <si>
-    <t>History/Government&lt;br&gt;Latin American Studies/Government</t>
-  </si>
-  <si>
-    <t>Seniors</t>
-  </si>
-  <si>
-    <t>http://www.dimitroffguadiana.com</t>
-  </si>
-  <si>
-    <t>Kevin Helgren &amp;amp; Binna Kim</t>
-  </si>
-  <si>
     <t>University-Wide Representative</t>
   </si>
   <si>
     <t>uwide</t>
+  </si>
+  <si>
+    <t>As an undergraduate representative of President Fenves’ ad hoc Committee on LGBTQ Support Initiatives and a student associate of UT's Gender and Sexuality Center, I have witnessed tireless efforts from many student-led organizations, such as Queer Student Alliance and UT’s first LGBTQ-inclusive sorority Gamma Rho Lambda. On-campus LGBTQ advocacy has been a high priority for many, with one common set of goals: creating a safer and more LGBTQ-friendly place for UT students, faculty, and staff. &lt;br&gt;&lt;br&gt;As your next university-wide representative, I hope to be a legislative representative for the LGBTQ community on campus. Together, we can leave a greater, more inclusive UT legacy for the future Longhorns of the Forty Acres. Share your voice; make the right CHOIce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Implement a university-wide orientation on LGBTQ issues&lt;br&gt;&lt;br&gt;2. Expand LGBTQ studies and programs&lt;br&gt;&lt;br&gt;3. Enhance recruitment and retention&lt;br&gt;&lt;br&gt;I strongly believe that to achieve these three platform points, we first need to create a more gender-inclusive campus -- such as preferred names and gender pronouns on university records and gender-inclusive bathrooms and spaces.&lt;br&gt;&lt;br&gt;No one should have to leave the building they are in to another, in order to find a gender-inclusive bathroom. Going to UT Austin is already academically challenging enough; and thus, simply going to a bathroom that our trans and gender nonconforming students feel comfortable and safe should not be a challenge or a privilege. </t>
+  </si>
+  <si>
+    <t>International Relations, Arabic</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/101348046925867/</t>
+  </si>
+  <si>
+    <t>The candidate did not provide the &lt;i&gt;Daily Texan&lt;i&gt; with this information.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>My name is Kevin Cruz. I am an Economics major, a sophomore, and a transfer student from Dallas. As a first-year transfer student, I understand the difficulty of getting into UT, and as a result, I have a huge appreciation for this school now that I am here. Even though I am a recent transfer, I still want to get to know more about this school, and I believe that meeting and talking to other students will help me get a better grasp on knowing more about UT. I love what UT stands for, and I want to make the most of my time here at UT.&lt;br&gt;&lt;br&gt;One of the things I appreciate most about UT is the diverse student body. A student body with a wide array of interests and backgrounds deserves a representative who is willing to listen to their needs and interests. The role of Student Government is to serve the people that elect them, but to also actively communicate with students through as many mediums as possible. Being appointed to an external committee has given me experience with Student Government, but now I want to have a larger role and make a greater impact. I believe I can accomplish this if elected as University Wide Representative. I look forward to meeting everyone and serving the UT Austin community. Hook ‘Em!
+</t>
+  </si>
+  <si>
+    <t>1. Increase Interaction Between Student Government and the Student Body – frequent town halls, increased social media presence, more accessibility for the student body&lt;br&gt;&lt;br&gt;
+2. Emphasis on Student Support Groups – Inform community about current support programs and create new programs for unmet needs&lt;br&gt;&lt;br&gt;
+3. Transportation Improvements – Increase bus/shuttle routes at busy times and create more parking spaces close to campus
+</t>
+  </si>
+  <si>
+    <t>Katherine Cruz</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Sophomore</t>
+  </si>
+  <si>
+    <t>ChooseCruzUT</t>
+  </si>
+  <si>
+    <t>ChooseCruzUT.com</t>
+  </si>
+  <si>
+    <t>The candidate did not provide the Daily Texan with this information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engage, Inform, Involve are not just three words, but a commitment to each you if I am your representative. They are three steps to ensuring our student government truly represents 40,000 diverse backgrounds and beliefs. I am running to be your University-Wide Representative because I believe in accessible leadership. I believe every student deserves to have a voice and that voice deserves to be heard. Together, we can put the emphasis in student government back on the student and work to enhance campus life and each students experience on the 40 acres. Join the movement for an Engaged, Informed, Involved student body, and Hook'em with Huerta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ENGAGE - By developing physical and online forums for students to voice their opinions and creating social, service, and spirit opportunities to contribute to the betterment of our campus community, I will ensure every student knows how to actively participate in their government.&lt;br&gt;&lt;br&gt;
+2. INFORM - You deserve transparency in your student government. I will ensure you are made aware of legislation and student government agendas through social media and physical distributions of information. I will also take time to visit with individual organizations to understand their needs and inform them of government happenings.&lt;br&gt;&lt;br&gt;
+3. INVOLVE - By creating an online platform for students to take surveys and voice their opinion on legislation, as well as suggest new ideas, we can make having a voice in our government simple.  </t>
+  </si>
+  <si>
+    <t>Alexandra M. Hunter</t>
+  </si>
+  <si>
+    <t>Business Management with a Government Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophomore </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HookemwithHuerta/</t>
+  </si>
+  <si>
+    <t>Our jobs, if elected, would be to serve as the voice of the students - and I want to do that just as much as every other candidate. But, you can only talk about that so much.
+Perhaps what good representatives do is not just vote for their constituents, but develop relationships with them and earn their trust. For me, this means working with student leaders on campus, in any way I can.
+For example, I've been working with Puja Patel, the President of Hindu Student Association, to promote Hinduism Awareness Week. I spoke with Janica Mitra, the President of Vietnamese Student Association, and heard her concerns regarding appropriations. I also spoke with Students for Sensible Drug Policy, and heard their desire to work towards harm-prevention. And, I plan to continue speaking with various leaders around campus to see what the student government can do for them.
+I've already been working with student orgs to see what they need, as I would do if elected. I think this is what good representatives do, and so that's what I've done. 
+Best of luck to the other candidates!</t>
+  </si>
+  <si>
+    <t>Protect and serve the student organizations that create diversity on campus.&lt;br&gt;&lt;br&gt;
+Actively work with organization leaders on campus to better understand the needs of the students.&lt;br&gt;&lt;br&gt;
+Work with the elected president to enact effective legislation.&lt;br&gt;&lt;br&gt;
+Ensure that Student Government takes a more active role in servicing our community.&lt;br&gt;&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>Anh Gnoc Tran</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>JewellForUTRep</t>
+  </si>
+  <si>
+    <t>I’m running for this position because I that I can represent students in a meaningful way. My belief is in inclusivity and diversity in every nook and cranny of campus, and am so passionate about this campus that I wont stop working until I know I've done all I can within my specified job parameters. I feel that my ideas and initiatives can directly impact us Longhorns in a positive way, in the near future. I plan to bring to UT the servant leadership that it has lacked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force the University into action about reducing the number of sexual assaults on campus&lt;br&gt;&lt;br&gt;Urge UT to increase the visibility and accessibility of Student Mental Health Services&lt;br&gt;&lt;br&gt;Create an online system assisting students in finding affordable housing so they aren't left out on their own with the stressful search process&lt;br&gt;&lt;br&gt;Allow for free annual STD testing through the Student Services system to protect students health&lt;br&gt;&lt;br&gt;Allow students to get their transcripts for free, to reduce the upfront costs of attempting to continue your education </t>
+  </si>
+  <si>
+    <t>United States White House Photography</t>
+  </si>
+  <si>
+    <t>LouieforUTRep</t>
+  </si>
+  <si>
+    <t>www.facebook.com/LouieForUTRep</t>
   </si>
   <si>
     <t>Student Government is in need of diversity! My goal is to fill that slot and bring forth actual representative leadership. Beyond shoring up the diversity void, I plan to actively push for a more visible legislature that actively showcases their meetings and makes a concerted effort to become more transparent to the student body. My goals in office will be as follows if elected:&lt;br&gt;&lt;br&gt;
@@ -602,16 +818,36 @@
 </t>
   </si>
   <si>
+    <t>Gregg Hayworth</t>
+  </si>
+  <si>
     <t>Plan II Honors &amp;amp; Business (Management)</t>
   </si>
   <si>
-    <t>Sophomore</t>
-  </si>
-  <si>
     <t>VoteMadden</t>
   </si>
   <si>
     <t>https://www.facebook.com/events/959161137491319/</t>
+  </si>
+  <si>
+    <t>My name is Cameron Maxwell, and I hope to serve you as your next University Wide Representative.&lt;br&gt;&lt;br&gt;I am a second year Economics major from Dallas, Texas. I am also a transfer student in my first year. I remember the excitement I felt when I received my acceptance letter from UT and hope to bring that same excitement to Student Government. Being a transfer student I posses a unique outlook, and hope to address many of the struggles I faced if elected to Student Government.&lt;br&gt;&lt;br&gt;My platform is increasing diversity, inclusion, and to investigate more options for affordable housing, but my main objective is to represent each student. If elected I will work to accomplish all aspects of my platform. Student Government was created to serve students and make campus life the best it could be. I will never lose sight of that. 
+I am excited to see what is in store for Student Government, and believe great things can be accomplished if a group of students who all have the best interest of the student in mind work together. 
+For more information about my platform points please visit my website: electmaxwell.com 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Is Everyone at The Table  - I would work to bridge the gap between the Multicultural Engagement Center and the Diversity and Engagement Committee and SG for improved diversity initiatives.&lt;br&gt;&lt;br&gt; 
+2. Home Away from Home -  Designed for first year and transfer students. By working with New Student Services. The program  would equip them with tools that would will help them adjust into the University's culture. &lt;br&gt;&lt;br&gt; 
+3. The Price is Right - Focuses on Housing I would work with the university to investigate how housing could be more affordable for those struggling to pay for it </t>
+  </si>
+  <si>
+    <t>Calep Smith</t>
+  </si>
+  <si>
+    <t>ut_cameron</t>
+  </si>
+  <si>
+    <t>electmaxwell.com</t>
   </si>
   <si>
     <t>Hi Longhorns! My name is Drew Orland, and I'm a second-year Economics major from Plano, TX.&lt;br&gt;&lt;br&gt;
@@ -624,10 +860,47 @@
     <t>Connecting to the UT/Austin Community – Helping students feel at home at UT and in Austin&lt;br&gt;&lt;br&gt;  COMMUNITY SERVICE : One of the best ways to explore Austin is by volunteering with local charities and non-profits to benefit the greater Austin community. I think the university should offer more opportunities and make it easier for students to volunteer around Austin.&lt;br&gt;&lt;br&gt;  EARLY INVOLVEMENT : Because UT is such a big school, it’s often too easy for incoming students to fall through the cracks and feel like just another face in the crowd. If we push organization and program involvement more at Orientation and early on in the school year, we can make it easier for freshmen and transfer students to find a small community that makes campus feel like home.&lt;br&gt;&lt;br&gt;VOTER REGISTRATION : UT can combat the often low voter turnout of college-aged citizens by making voter registration more accessible to its students. One of the most effective ways we can make this a reality is by offering more opportunities to register as a voter in highly trafficked areas of campus and as part of programs that every student participates in, like Orientation.&lt;br&gt;&lt;br&gt;DIVERSITY AWARENESS : UT is a diverse campus in many ways, with students coming from all different kinds of backgrounds and identities. I believe the University should respect and accommodate these differences whenever possible. As your representative, I would work to make the university more LGBTQ-friendly in the way it interacts with and accommodates students. I believe the university should also do a better job addressing race-related incidents that make campus feel less welcome to minority students.</t>
   </si>
   <si>
-    <t>Economics</t>
+    <t>Daniel Bacic</t>
   </si>
   <si>
     <t>https://www.facebook.com/events/685701271569685/</t>
+  </si>
+  <si>
+    <t>I love this university, however, I believe there is still work to be done in order for The University of Texas at Austin to further improve its academics, extracurricular opportunities, and overall environment. On the Forty Acres, I have worked closely with student leaders as a member of the American Marketing Association, Undergraduate Business Council, and Student Government. I also ring the UT Tower bells as a member of The Guild of Carillonneurs. As a University-Wide Representative, I would like to empower students, faculty, and staff, give back to the community, and continually work to improve the Forty Acres. If I am elected, I promise to stand for you and your opinions in Student Government. Thank you for your participation in the election, and have a great day!
+</t>
+  </si>
+  <si>
+    <t>- Student safety on campus and off campus - in areas like West Campus, Downtown, and Riverside - has continued to be a problem. If elected, I will work with other Student Government representatives, the City of Austin, and third parties to promote and revitalize the SafeRide and SURE Walk programs.&lt;br&gt;&lt;br&gt;
+- Many students have had difficulties finding opportunities to give back to The University and the Austin community. If elected, I will help increase the visibility of service organizations and initiatives, and I will develop new university-wide philanthropic opportunities.&lt;br&gt;&lt;br&gt;
+- Student Government has resolved many student problems, but, unfortunately, only engages a relatively small percentage of students. If elected, I will work to expand Student Government’s reach to all students, so each Longhorn may fully utilize the various opportunities sponsored by this organization.
+</t>
+  </si>
+  <si>
+    <t>Kenneth Young</t>
+  </si>
+  <si>
+    <t>Marketing and Economics</t>
+  </si>
+  <si>
+    <t>VigneshRamdas</t>
+  </si>
+  <si>
+    <t>I am Santiago Rosales, a business sophomore from Houston, Texas. I am an avid fan of hip-hop, an amatuer chef, and an occasional jogger (emphasis on occasional). I am also a firm believer in UT’s promise of a world-class education and a chance to change the world. My desire to work in Student Government comes from this belief and the hope of opening more doors for students on the Forty Acres.&lt;br&gt;&lt;br&gt;In my current term, I worked to improve the student experience. I authored two resolutions: AR 1 to improve the freshman experience and AR 8 to allow students a space to speak about their experiences with racism. I supported the removal of the Jefferson Davis statue, the lowering of SG campaign spending limits, and lobbied against campus carry. I sponsored resolutions to expand the Good Samaritan policy, and to address homelessness and student safety on Guadalupe.&lt;br&gt;&lt;br&gt;With my term coming to an end, I am running for reelection to continue to build on my work from this year. I want to focus on subsidizing unpaid internships, lowering textbook costs, promoting inclusion, and working with City Council and Texas Legislature. I want to make the Forty Acres what it promises to be: a world-class university and a chance to change the world.&lt;br&gt;&lt;br&gt;If you agree with this message, I’d appreciate your support.</t>
+  </si>
+  <si>
+    <t>1. Improve affordability by lowering textbook costs, subsidizing unpaid internships, and promoting financial literacy&lt;br&gt;&lt;br&gt;2. Build an inclusive campus by promoting cultural events, calling out discrimination, and making recruitment more diverse&lt;br&gt;&lt;br&gt;3. Bridge the gap between students and government by changing SG culture, involving more students, and facilitating student advocacy</t>
+  </si>
+  <si>
+    <t>Davey Bemporad</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>santiagorosal</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rsantiagorosales/</t>
   </si>
   <si>
     <t>Hello Longhorns! My name is Alex Tayoub and I’m an Economics, Pre-Med first-year running to be one of your eight University-Wide Representatives. I believe that Student Government is missing representation for the various student communities out there on the Forty Acres. Students with disabilities, transfer students, first-generation students, Hispanic students, Middle Eastern students, low-income students; these are all communities of students that I’m a part of, yet there is little to no representation of these student communities in Student Government. I want to change that. I want to bring the issues and concerns of the diverse student body to the table so that they are discussed and addressed. I want to make Student Government more accessible so that everyone can have their voice heard in Student Government.&lt;br&gt;&lt;br&gt;
@@ -637,16 +910,56 @@
     <t>Help UT empower the community of students with disabilities by expanding, promoting, and encouraging opportunities in research, leadership and careers.&lt;br&gt;Establish a book voucher system so students can get the books they need from The Co-op and instead of paying out of pocket right there, the amount gets added to their What I Owe so financial aid and scholarships can pay for it.&lt;br&gt;Create a task force of different members of the student body, faculty, and staff to create discussion, and come up with a variety of solutions regarding the issue of sexual assault/violence.&lt;br&gt; Establish a more affordable meal plan for both on-campus and off-campus students.&lt;br&gt;Make printing FREE.</t>
   </si>
   <si>
+    <t>Wyatt Kaiser</t>
+  </si>
+  <si>
     <t>tayoub4uwr</t>
   </si>
   <si>
     <t>http://www.facebook.com/alxtayoub</t>
   </si>
   <si>
+    <t xml:space="preserve">I got involved in Student Government to directly affect the lives of students. I have proven as a McCombs Rep that I will work on legislation that makes substantive change, and help other reps on issues they're passionate about. I have a great relationship with 3 of the executive alliances, and will be a reliable assembly partner for any of them. </t>
+  </si>
+  <si>
+    <t>1.)        Service University: Work with SG’s Philanthropy Director to revamp Orange Outreach, which pairs student organizations with service projects. Use GivePulse to track to the university’s impact. Push for increased support of “Students Hooked on Texas” and “ The Project”.&lt;br&gt;&lt;br&gt;
+2.)        Bridge the Gap: Continue work with Campus Fusion and on cross-college collaboration. Currently working with fellow McCombs reps on initiative to create joint-social events for academic organizations. Invite 1 student leader each week to speak at Assembly and update us on their corner of campus.&lt;br&gt;&lt;br&gt;
+3.)        #MonumentMomentum: The huge Aggie Ring. The B _ G signs for #DallasBIG. The I Am Sterdam sign. These types of interactive monuments are very popular on social media, and I want to start the conversation about bringing one to campus. We have a huge empty fountain across from the Co-op on Guad, lets use that prime locaiton. Changes like this take time, but imagine the possibilities.
+&lt;br&gt;&lt;br&gt;
+4.)        Voter Turn-up: It is a huge election year, and I want to continue supporting Hook the Vote in its initiative to increase student registration.</t>
+  </si>
+  <si>
+    <t>Anna Wang Photography and Michelle Zhang</t>
+  </si>
+  <si>
+    <t>Business Honors &amp;amp; Plan II</t>
+  </si>
+  <si>
+    <t>mickywolf9</t>
+  </si>
+  <si>
     <t>Architecture Representative</t>
   </si>
   <si>
     <t>arch</t>
+  </si>
+  <si>
+    <t>Hi! My name is Chase Bennett, and I am so excited to be running as your representative in Student Government.&lt;br&gt;&lt;br&gt;No one really knows what UT Student Government does. I don’t really know either, but I’m going to change that by breaking down the barrier that exists between the student population and its elected representatives.&lt;br&gt;&lt;br&gt; I am ready to be a part of something more than myself and give back to the university I love. I genuinely care about your opinion and want to advocate for you in UT Student Government.&lt;br&gt;&lt;br&gt;Together, we can make a better UT!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As your McCombs Representative, I will:&lt;br&gt;&lt;br&gt;1) develop a Google Form for McCombs students to submit what policies and actions they want their representatives to pursue,&lt;br&gt;&lt;br&gt;2) broadcast and advertise McCombs Affiliated Student Organizations and increase their recruitment and retention, and&lt;br&gt;&lt;br&gt;3) advocate for pre-professional students in McCombs by creating an agency within SG strictly dedicated to assisting students on pre-professional paths. </t>
+  </si>
+  <si>
+    <t>Grace Scoggin</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>chasebennett_95</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1678688495743329/</t>
   </si>
   <si>
     <t>McCombs Representative</t>
@@ -663,10 +976,58 @@
 Promote open and free lines of communication that includes the students, faculty, their representatives </t>
   </si>
   <si>
+    <t>Nihal Dhamani</t>
+  </si>
+  <si>
     <t>Business (Undeclared) and Government</t>
   </si>
   <si>
+    <t>Hey everyone my name is Amie Jean. I'm enthused by the possibility of becoming your business representative. I am the 12th child of 13 so I definitely know what it is like to feel like you have no voice. I am the underrepresented, low income background, first generation student, but a student at the University of Texas at Austin nonetheless. I want to ensure that no McCombs student feels unheard and that your needs are effectively communicated to the University. McCombs is teeming with phenomenal students, staff, and resources and shines when each area is connected. If we strive towards greater unity we will ultimately create a space of inclusion, growth, and vision, where other students attribute more to us than the prestige encompassing our name. In short, my platform calls for us to KNOW and GROW McCombs from the inside out.</t>
+  </si>
+  <si>
+    <t>Natalie Miller</t>
+  </si>
+  <si>
+    <t>Determined. Leading. Ambitious. Listening. Caring. I am Katherine Harclerode. Being involved with the Undergraduate Business Council, Ignite, Austin Pets Alive, Younglife, and founder of two charities, I have developed a passion for making The University of Texas a superior campus. Someone once told me not to cross oceans for people who wouldn’t cross a puddle for me. But what sets me apart is my opposition to that statement. I want to give and not think twice. I want to cross oceans, climb mountains and give my all, living and loving life passionately. I want to use my compassion to change the world, not caring if anyone is worthy or not, not expecting anything in return, but simply giving to give. I hope to be the voice of business students seeking to make a difference. For life is not about what we gain, but about what we give. I truly want to make this campus a better place through the eyes of UT students, so vote Katherine Harclerode!</t>
+  </si>
+  <si>
+    <t>McCombs App :  An app specifically allocated for McCombs that includes a table of all business organizations. These organizations can be seen alphabetically, or organized by major. When clicked on, the app will tell the viewer what this organization does, when it meets, and how to be apart of it. Secondly, this app will have a tab including a news forum.The News Forum will list upcoming events put on by McCombs and the organizations. These events can be easily added to the calendar, and also the user can choose to see only events in organizations they are interested in.&lt;br&gt;&lt;br&gt;A Safer UT : Increase safety at UT by extending the blue emergency phone lights into West Campus, while also increasing lighting in dark areas within West Campus. This gives students more resources to be safer individuals as they are walking home. &lt;br&gt;&lt;br&gt;
+Voices Heard! :  I truly extend myself into various organizations, which gives me the ability to hear different issues plaguing this campus. I strive to be receptive to all students in order to facilitate their desires, ultimately enhancing UT.
+</t>
+  </si>
+  <si>
+    <t>Select Studios</t>
+  </si>
+  <si>
+    <t>My name is Vanya Sharma, a native of Dallas, TX and a huge Dem Boyz fan. I am a dedicated person who wants every McCombs student's voice heard no matter what.Also,  I am an easily accessible person who is prompt to respond to texts or emails. So, if you want to learn more about me or my platform or anything else, please reach out to me!&lt;br&gt;&lt;br&gt;My number is (214) 205-8866, and my email is vanya_sharma@utexas.edu! Hook 'Em!</t>
+  </si>
+  <si>
+    <t>1. Create a mentor program with successful businessmen like Kanye West so that we can all be $53 million in debt&lt;br&gt;&lt;br&gt;2. Increase community service initiatives because Bill Gates does philanthropy. Bill Gates is a good person. We should all be like Bill Gates more.&lt;br&gt;&lt;br&gt;3. Introduce business seminars at the other colleges like CNS or COLA to demonstrate the prevalence of business and how it’s better than all other majors. Especially Engineering.&lt;br&gt;&lt;br&gt;4. Get new, unbreakable printers to make McCombs perfect again!</t>
+  </si>
+  <si>
+    <t>Business Honors &amp;amp; Plan II Honors</t>
+  </si>
+  <si>
     <t>Dhrov &amp;quot;Drew&amp;quot; Subramanian</t>
+  </si>
+  <si>
+    <t>Hello! My name is Dhrov “Drew” Subramanian, and I am a first year business student from Austin, Texas. I am currently involved in the Longhorn Legislative Aide program and I’ve learned a lot about the legislative process here on campus over the course of the past year. I have valuable experience authoring legislation and working on campus wide issues. As your representative I hope to use my experience to unite the diverse community that is the McCombs School of Business. With thousands of students and close to forty affiliated student organizations within the school this seems like a daunting task but I guarantee that I will be dedicated to every one of my constituents. I am eager to listen and learn from all of y’all and will do whatever it takes in order to make your dreams a reality. Hook ‘em!</t>
+  </si>
+  <si>
+    <t>“Hello, it’s me”- Reach out to students who feel disenfranchised with student government and write legislation in order to adequately represent them. 
+(So even if you’re on the other side, I will call a thousand times)&lt;br&gt;&lt;br&gt;“I can make your hotline bling”- Make a McCombs application/catalogue in order to consolidate information about clubs and help students access information about how to get involved on campus. 
+(Now you can check the app on your cell phone, late night if you need some love)&lt;br&gt;&lt;br&gt;“You should go and love yourself”- Inform students about the many great resources the university has to offer and find out what other services need to be expanded or introduced.&lt;br&gt;&lt;br&gt;(Even if you’re caught up in your job, or don’t know what’s going on, you should take some time to love yourself)&lt;br&gt;&lt;br&gt;“Work”- Engage students in new and impactful service activities in order to give back to the surrounding community while fostering a culture of altruism.
+(They gon see us get that work,work,work,work,work in when we help out in the community)
+</t>
+  </si>
+  <si>
+    <t>Dhrov Subramanian</t>
+  </si>
+  <si>
+    <t>Annie Xue</t>
+  </si>
+  <si>
+    <t>Unspecified Business</t>
   </si>
   <si>
     <t>Hello! My name is Vivianne Tu, and I am running for this position because I strive to strengthen the diverse, passionate, and unique voice of McCombs in our student government. McCombs students cultivate an outstanding culture of innovation, hard work, and passion, and it would be my greatest honor to serve as the bridge between the voice of McCombs students and Student Government. 
@@ -683,10 +1044,64 @@
     <t>Ramanika Upneja</t>
   </si>
   <si>
+    <t xml:space="preserve">I want to be your next Business Representative because I have experience in organizations ranging from Senate to Model UN. I believe I would be an effective representative because of my experiences writing legislation and already voicing the needs of the student body. </t>
+  </si>
+  <si>
+    <t>-Organize wider support for McCombs events through student government.&lt;br&gt;&lt;br&gt;
+-Create more effiecnt and productive communication between student government and McCombs students.&lt;br&gt;&lt;br&gt;
+-Find new ways of surveying McCombs students to make sure we are working for what business students care most about. 
+</t>
+  </si>
+  <si>
+    <t>Seth Krasne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unspecified Business </t>
+  </si>
+  <si>
+    <t>ramanikaupneja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m running to better the media opportunities at UT for the entire campus. Having worked extensively for most of UT’s student media outlets, I know that they can sometimes miss coverage on important issues and be focused on communication students. They should provide a learning opportunity for all students, as well as fair and balanced coverage of the important issues facing this campus.&lt;br&gt;&lt;If elected, I’ll fight to increase awareness of student media outlet hiring, make the Texas Student Media Board more accessible to all students by fighting to strike down narrow membership requirements, and call out poor media coverage.&lt;br&gt;&lt;I’ll be someone you can personally contact with your concerns that won’t be afraid to tackle media issues out of fear that my advocacy will lead to backlash coverage of me. My cell phone number is 512-318-7770 and my email address is DavidMaly1@gmail.com. Contact me anytime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Act as a contact on journalism issues at UT, including lack of coverage and unfair coverage&lt;br&gt;&lt;br&gt;- Increase awareness of hiring around student media&lt;br&gt;&lt;br&gt;- Fight for more open TSM Board membership requirements </t>
+  </si>
+  <si>
+    <t>Jared Geers</t>
+  </si>
+  <si>
+    <t>Journalism and Economics</t>
+  </si>
+  <si>
+    <t>DavidMaly1</t>
+  </si>
+  <si>
     <t>Communications Representative</t>
   </si>
   <si>
     <t>comm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growing up, my family moved around a lot. I lived in several different countries and states. It was not always easy picking up a new language or understanding the culture. At a young age, I saw how vital communication was when it came to interacting with diverse groups of people. Effective communication can profoundly transform our perspective of the world. This is why I have always wanted to pursue the study of communication. I am running to be YOUR Communication Representative for Student Government because Moody has provided me with inspiration and opportunities to grow as a communicator and I want to give back to the college and help do the same for others! As a member of Communication Council and a Student Government Committee, I have been able to grasp a unique perspective on the challenges faced by students and I am passionate about finding ways to help them. </t>
+  </si>
+  <si>
+    <t>1) Break down Moody into a tightly-knit community so students can be alert of opportunities relevant to them, like information on career fairs, guest speaker presentations, resume workshops, and MANY more.&lt;br&gt;&lt;br&gt;
+2) Create better access to the resources which inform students about available scholarships, applying for internships, changing degree-plans, studying abroad, and student organizations related to their career-path.&lt;br&gt;&lt;br&gt;
+3) Cultivate an identity among Communication students to convey their interests and create pride within our college.
+</t>
+  </si>
+  <si>
+    <t>Rishabh Dhar</t>
+  </si>
+  <si>
+    <t>Corporate Communication &amp;amp; Journalism</t>
+  </si>
+  <si>
+    <t>jaaahnavi</t>
+  </si>
+  <si>
+    <t>http://www.jahnaviforcommrep.info/</t>
   </si>
   <si>
     <t xml:space="preserve">If you attend the Moody College of Communication, you are important. As a Longhorn Legislative Aide in UTSG and a member of the Communication Council, I am aware of our college’s reputation on campus. As your representative, I am ready to make decisions with you that will make our experience at Moody a better one. The time is now to have a representative who is both excited and enthusiastic about what they can do to give back to the Moody College of Communication. The decision is now yours! “Comm together” March 2 and 3 on utexasvote.org and vote for me as your Communication Representative. </t>
@@ -699,6 +1114,9 @@
 </t>
   </si>
   <si>
+    <t>Sebastian Sada</t>
+  </si>
+  <si>
     <t>Communication Studies, Corporate</t>
   </si>
   <si>
@@ -709,6 +1127,20 @@
   </si>
   <si>
     <t>https://www.facebook.com/steven.santoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a freshman Special Education major who has always had a passion for advocacy. Ever since I was little, standing up for what I believe in has played a crucial role in my life, whether it’s that I deserve a second cookie or that every person, no matter their ability, disability, gender, race, or socioeconomic status deserves access to the same opportunities. Often times you could find me discussing with a teacher, parent, or friend about what was fair or unfair. I now know that not everything in life is fair, but this passion from when I was little remains. As Education Council Representative my goal is to be the voice for the College of Education and an advocate for all students on campus. My aim is to represent the College of Education fairly and speak up for what those in the College of Ed believe is right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I aim to be the voice for the students in the College of Education.&lt;br&gt;&lt;br&gt;
+I will advocate for the best opportunities for all students on campus no matter their gender, race, socioeconomic status, ability or disability. &lt;br&gt;&lt;br&gt;
+I hope to increase the visibility of the College of Education on campus. </t>
+  </si>
+  <si>
+    <t>Brianna Nixon</t>
+  </si>
+  <si>
+    <t>Special Education and Plan II</t>
   </si>
   <si>
     <t>Education School Representative</t>
@@ -724,10 +1156,29 @@
 Thank you for your consideration!</t>
   </si>
   <si>
+    <t>Carolyn Ellis</t>
+  </si>
+  <si>
     <t>Applied Learning and Development</t>
   </si>
   <si>
-    <t>Junior</t>
+    <t>My greatest passion is improving accessibility to education. As Engineering Representative, I hope to pursue this passion by creating a more inclusive learning environment in the Cockrell School of Engineering. I got my start in Cockrell leading in the National Society of Black Engineers (NSBE), where I am now president. Last semester I initiated dialogue with the dean, administrators and faculty of Cockrell discussing how to make the college of engineering a more inclusive environment for underrepresented groups (women, Black, Latinx, Indigenous, LGBTQ, differently-abled, etc). My three means of achieving inclusivity include increasing student and faculty diversity, improving physical accessibility on campus, and expanding awareness of campus resources within Cockrell like tutoring and mental health services. If elected, I plan to further pursue legislation that helps not only make the college of engineering a more inclusive learning environment, but also The University of Texas at Austin as a whole. 
+</t>
+  </si>
+  <si>
+    <t>-increased diversity&lt;br&gt;&lt;br&gt;
+-improved physical accessibility&lt;br&gt;&lt;br&gt; 
+-expansion of mental health resources&lt;br&gt;&lt;br&gt;
+-awareness of academic assistance like tutoring &amp;amp; peer mentorship</t>
+  </si>
+  <si>
+    <t>Diana Pop</t>
+  </si>
+  <si>
+    <t>Petroleum Engineering</t>
+  </si>
+  <si>
+    <t>faithkcarter</t>
   </si>
   <si>
     <t>Engineering School Representative</t>
@@ -736,9 +1187,51 @@
     <t>engineering</t>
   </si>
   <si>
+    <t>I’m always ready to try and learn something new, be it from my own mistakes or with another person. I love collaborating with others and believe I not only have a lot to learn, but also a lot to give as Engineering Representative. A family tradition of mine is to travel to a different part of the world every summer. From that, I’ve experienced countless cultures and met people from all walks of life. But beyond my travels and personal background, I’ve been sure to take a class outside of my degree plan every semester so as to round-out my education here on the 40 Acres. I believe I will bring a unique perspective to Student Government that would help us resolve issues in a new, creative light.&lt;br&gt;&lt;br&gt;There are so many events and resources within the Cockrell School that aren’t communicated clearly to the student body, and I believe I can be the bridge that connects the gap between the School and its students. Through my experience planning college-wide events, like the Corporate Chili Cook-Off with the Freshmen Engineering Council, to smaller events with my squad in our group text, I’ve learned how to communicate clearly and make sure everyone is on the same page. As Engineering Representative, I’ll apply what I’ve learned to ensure that the voices of the student body are heard and responded to constructively.&lt;br&gt;&lt;br&gt;I’m always willing to hear out any concerns one may have and discuss how we could improve our experience on the Forty Acres, and as Engineering Representative, I’d work to ensure we see that improvement. 
+</t>
+  </si>
+  <si>
+    <t>- Improve communication between the Cockrell School and its students&lt;br&gt;&lt;br&gt;- Promote events with other colleges&lt;br&gt;&lt;br&gt;- Expanding research opportunities for underclassmen&lt;br&gt;&lt;br&gt;- Free printing within engineering buildings for engineering students &lt;br&gt;&lt;br&gt;- Keeping an open ear to discussion of how else we could improve the Cockrell school together 
+</t>
+  </si>
+  <si>
+    <t>Mahroosa Haideri</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering, Business Foundations Program</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jacob Read </t>
   </si>
   <si>
+    <t>My name is Jacob Read and I am an Electrical Engineering major.  Over the last few weeks I have had dozens of conversations with engineering friends asking what, if elected Engineering Representative, I could do for them.  I heard some great feedback from my fellow engineers.  However, many did not know they had any voice at all in Student Government.  The truth is, SG has a wide impact on issues that matter to us all.  That is why it is my vision to increase engineering participation in SG.  To do this I will take opinion polls, keep student groups informed, and be open to your great ideas.</t>
+  </si>
+  <si>
+    <t>I will work to address the lack of space and resources for engineering clubs.&lt;br&gt;&lt;br&gt;
+I will author a bill requesting that office hours be held in a more convenient location than UTA (off campus).&lt;br&gt;&lt;br&gt;
+And I will work to solve any other problem that might cause the Cockrell School to run suboptimally!</t>
+  </si>
+  <si>
+    <t>Elizabeth Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being a sophomore Mechanical Engineering student has given me the opportunity to experience the great opportunities that The Cockrell School of Engineering has to offer.  I have also seen many areas that Student Government can improve.  I'm confident that I will be able to achieve the goals laid out in my platform.  </t>
+  </si>
+  <si>
+    <t>Being transparent about the issues discussed in SG meetings, opening up a dialogue between students and representatives through social media.
+&lt;br&gt;&lt;br&gt;Establishing more study areas in the engineering quadrant of campus as well as increasing the number of chairs, outlets, and tables in existing study areas.&lt;br&gt;&lt;br&gt;Encouraging collaboration and friendship of members in different engineering organizations through joint events and mixers.&lt;br&gt;&lt;br&gt;Straightening the SEC whose members consist of the leaders of engineering organizations and clubs.  This will promote partnership and rapport between clubs as well as discussion about issues organizations face.&lt;br&gt;&lt;br&gt;Holding other representatives accountable for their responsibilities.
+</t>
+  </si>
+  <si>
+    <t>Matt Robertson</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
     <t>Toni Lorene Baker</t>
   </si>
   <si>
@@ -754,25 +1247,222 @@
     <t>geo</t>
   </si>
   <si>
+    <t>I don't have any lofty goals or crusades of my own; I recognize that I'm just the intermediary step between graduate students and the decision making process. My desire in this role is simply to make sure that decisions have been fully thought through, that the details align with the greater mission, and that all sides of an argument are being represented.</t>
+  </si>
+  <si>
+    <t>I want to make sure that decisions are well thought out and that all perspectives are represented in the decision making process.</t>
+  </si>
+  <si>
+    <t>Betsy Straub</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>1st year</t>
+  </si>
+  <si>
     <t>Graduate At-Large Representative</t>
   </si>
   <si>
     <t>gradatlarge</t>
   </si>
   <si>
+    <t>My name is Andrew Parks. As an undergraduate at The University of Alabama, I was involved in efforts to reform student government, expand student enfranchisement, increase transparency in student leadership and hold the University’s administration accountable to students for official actions. I co-founded the first student watchdog group in campus history, and started a campus political party which brought representation to elements of campus that had never before found a voice in UA politics.&lt;br&gt;&lt;br&gt;
+As a representative of the students of The University of Texas School of Law, I intend to put these experiences to work building stronger relationships between the law school and the undergraduate campus, giving law school students a much needed voice in major campus decisions and expanding the services provided to law school students. I hope you will consider voting for me, and appreciate the opportunity to represent you.</t>
+  </si>
+  <si>
+    <t>I'd like to increase interaction between law school students and the broader campus, implement first time parking ticket forgiveness for students, and build a stronger, more transparent student government.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
     <t>Law School Representative</t>
   </si>
   <si>
     <t>law</t>
   </si>
   <si>
+    <t>I want to, first of all, say that it is an honor and a privilege to be a Liberal Arts student at the University of Texas. I am a second year Government major that values the skill set my college is providing me. From the beginning of my tenure here, I have wanted to become more involved with university leadership to ensure that the student voice is heard and valued. I am currently the President for the Black Student Alliance, a member of Texas Phanos and serve in other leadership capacities across campus. I would not only be humbled, but also compelled to make a difference in our liberal arts student community by amplifying the voice of liberal arts students through proper representation and fostering a sense of pride through college wide programs and events.&lt;br&gt;&lt;br&gt;I am thankful for your consideration to represent you, as a liberal arts student! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One thing that has always been important to me is LEADERSHIP! Leadership not only gives individuals the ability to develop themselves but the opportunity to develop others. Being at the University of Texas we are surrounded by leaders and sometimes find it hard to find leadership opportunities, especially in a community where leaders are leading leaders. As COLA Rep, I want to ensure that there are ample opportunities for students to develop their leadership.&lt;br&gt;&lt;br&gt;As a COLA Rep, I will work to improve the transparency between Student Government and Liberal Arts Students. Student Government need someone who will properly represent the the needs and wants of the students. I want students to understand the happenings of Student Government and be able to convey what they want to see.&lt;br&gt;&lt;br&gt;I am very passionate about increasing the conversation and promoting proactive ways to address diversity. It is very important for students to be in diverse settings because it allows their perspective to be widened. It is also equally important for students contributing to the diverse environment to feel comfortable and accompanied by other people of the same background. </t>
+  </si>
+  <si>
+    <t>Government &amp;amp; African and African Diaspora Studies</t>
+  </si>
+  <si>
     <t>Liberal Arts Representative</t>
   </si>
   <si>
     <t>cola</t>
   </si>
   <si>
-    <t>Alexendra Thomas</t>
+    <t>Sebastian de Beurs</t>
+  </si>
+  <si>
+    <t>Dear Friends in Liberal Arts,&lt;br&gt;&lt;br&gt;Excited to announce that I'm running for Liberal Arts Rep! 
+&lt;br&gt;&lt;br&gt;TAKING CARE OF LIBERAL ARTS&lt;br&gt;&lt;br&gt;
+- Expanding undergrad research opportunities &amp;amp; funding&lt;br&gt;&lt;br&gt;
+- Increasing engagement with Lib Arts Career Services&lt;br&gt;&lt;br&gt;
+- Fighting back against Lib Arts tuition increase&lt;br&gt;&lt;br&gt;
+MAKING UT INCLUSIVE&lt;br&gt;&lt;br&gt;
+- YES to in-state tuition for undocumented Texans&lt;br&gt;&lt;br&gt;
+- YES to more gender neutral restrooms&lt;br&gt;&lt;br&gt;
+- YES to affirmative action (UT v. Fisher)&lt;br&gt;&lt;br&gt;
+&lt;br&gt;&lt;br&gt;
+HOOK'EM,
+&lt;br&gt;
+Sebastian
+</t>
+  </si>
+  <si>
+    <t>THE ISSUES:&lt;br&gt;&lt;br&gt;
+In a time when engineering, science, and business are getting lots of attention, we need to expand Lib Arts undergrad research and make Lib Arts Career Services more user-friendly for our internship and job searches! ...the last thing we need is a tuition increase...
+&lt;br&gt;&lt;br&gt;
+Affordable education for undocumented Texans is imperative to fighting social inequality. The TX legislature is waging a war against America's most oppressed class and I want UT to fight back.
+&lt;br&gt;&lt;br&gt;
+We need to spread respect for diversity in terms of gender, sexuality, religion, race, or fav netflix show. Lets make a statement by expanding gender neutral restrooms and our anti-discrimination orientation program.
+&lt;br&gt;&lt;br&gt;
+An incredibly important Supreme Court case, UT v. Fisher, might have huge consequences for Affirmative Action. We must defend the INCLUSION of racial minorities in higher education. Only with a set of fresh perspectives derived from diverse backgrounds do we innovative the technologies, ideas, and policies that push our country forward.
+&lt;br&gt;
+TAKING CARE OF LIBERAL ARTS&lt;br&gt;&lt;br&gt;
+- Expanding undergrad research opportunities &amp;amp; funding&lt;br&gt;&lt;br&gt;
+- Increasing engagement with Lib Arts Career Services&lt;br&gt;&lt;br&gt;
+- Fighting back against Lib Arts tuition increase&lt;br&gt;&lt;br&gt;
+&lt;br&gt;
+MAKING UT INCLUSIVE&lt;br&gt;&lt;br&gt;
+- YES to in-state tuition for undocumented Texans&lt;br&gt;&lt;br&gt;
+- YES to more gender neutral restrooms&lt;br&gt;&lt;br&gt;
+- YES to affirmative action (UT v. Fisher)&lt;br&gt;&lt;br&gt;&lt;br&gt;
+HOOK'EM,
+Sebastian
+</t>
+  </si>
+  <si>
+    <t>Zoe De Beurs</t>
+  </si>
+  <si>
+    <t>Plan II, Government, History</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/236651776676844/</t>
+  </si>
+  <si>
+    <t>This campaign is driven by the people who want change in the College of Liberal Arts. My experience with legislation is seen through my work in the Senate of College Councils.</t>
+  </si>
+  <si>
+    <t>"More Legislation.
+More Recognition.
+More Representation.
+No Fluff."</t>
+  </si>
+  <si>
+    <t>Photo Courtesy of the candidate</t>
+  </si>
+  <si>
+    <t>ImAbiKumar</t>
+  </si>
+  <si>
+    <t>When elected I will add extraordinary programs and improve current opportunities for Liberal Arts students that will lengthen your resume so we all graduate with lucrative job opportunities. I will create a direct line of contact between students and myself, via email, that will ensure all opinions be heard without restriction. I will get all COLA students a discount on their dry cleaning before a Career Fair with the beauty of bulk discounts and free advertising (in the form of you visiting their business) for a local dry cleaner. You can bet that all of the local dry cleaners will want access to this kind of publicity and business and I will get you a GREAT deal. Finally, a recent problem on campus has been the security of your contact information. I pledge to secure your information and eliminate all unnecessary emails. I am Wesley Osborn and this is what I WILL do for you. Crazy sock day? wesley.osborn@utexas.edu.</t>
+  </si>
+  <si>
+    <t>Discounted dry cleaning before career fairs: This one I am VERY confident can be achieved. Career fair coming up and your attire is in need of attention? Yeah just take it to the dry cleaners! Except you have no money. That is me. I will work out a deal between the College of Liberal Arts students and a local dry cleaner a few days before a career fair where students can get a reduced price for being a COLA student. This is the beauty of guaranteed bulk discounts and FREE advertising.&lt;br&gt;&lt;br&gt;Comfortable job interview: We know that a strong resume is vital to prospective employers but that often does not materialize. Scavenging google, job listings, and emails is a frustrating and seemingly hopeless method for finding meaningful opportunities. WHEN YOU ELECT ME I will GUARANTEE that every student has a glowing resume that is at least one page. I will make it so easy for you to get involved that activities write themselves on your resume. When you are called in to your first real job interview the interviewer will be interested in discussing all the impressive activities you were involved in. Your conversation will go swimmingly with countless things to discuss. Don’t make your GPA the only discussion point. A vote for Wesley Osborn is a vote for a full page resume (minimum).&lt;br&gt;&lt;br&gt;I’m your inside man:  Trying to add a second major? Want to change schools? Are the advisors on lunch break every hour of the day? Neither is a walk in the park and having a guy on the INSIDE can be far more helpful than you think. Believe it or not I can walk up to the rep. of any school and say “Hey will you help me get this guy a meeting with an admission officer so he can improve his chances of adding/ changing his major.” I'll help in any way that gets you to the point you envision. A vote for Wesley Osborn is a vote for your inside man.&lt;br&gt;&lt;br&gt;Career Fairs You are Prepared For: 1. You will know exactly when they are with significant preparation time. No more running to the dry cleaners last minute. 2. Companies that are exciting. Nobody wants to work a job somewhere they hate. Thus, I will provide you with companies that are exciting. 3. You will be so much more prepared for a career fair that I am helping with. I will guarantee that you get an adequate bio sent on each company attending personally vetted by myself. That is a very good thing.&lt;br&gt;&lt;br&gt;Be the easiest person to reach: Idea on a bill? Want to start a petition? ANYTHING? It is sooooo easy… wesley.osborn@utexas.edu 
+</t>
+  </si>
+  <si>
+    <t>wesleybreh</t>
+  </si>
+  <si>
+    <t>http://wposborn.wix.com/liberalartsrep</t>
+  </si>
+  <si>
+    <t>Hi! My name is Cameron Osmond and I am a first-year Government and English student from Flower Mound, Texas. My understanding of policy through my involvement in Liberal Arts Council and my unique campus perspective provided to me through my time as a reporter for The Daily Texan are indicative of my experience in encountering a variety of student interests and issues in policy and student life. My platform points below illustrate my vision to improve both the College of Liberal Arts and the University.&lt;br&gt;&lt;br&gt;
+With tuition expected to rise in the next few years, involve COLA students in advocating for more funding through Invest in Texas. &lt;br&gt;&lt;br&gt;Increase awareness and advocate for financial assistance for organizations and movements on campus dedicated to combating sexual assault.&lt;br&gt;&lt;br&gt;Work to expand access to liberal arts research opportunities through heightened interaction between the college and organizations that directly work with COLA students’ interests. 
+</t>
+  </si>
+  <si>
+    <t>1) With tuition expected to rise in the next few years, involve COLA students in advocating for more funding through Invest in Texas. This is a student-led organization fighting to make UT Austin affordable, competitive, and safe by bringing a student voice to the Texas state legislature.&lt;br&gt;&lt;br&gt;
+2) Improve communication between organizations and movements on campus dedicated to combating sexual assault. Propose funding a permanent endowment through the university system to Voices Against Violence, a student organization that works to educate and assist students in regards to sexual violence. Work with student organizations on campus, creating dialogue with the many students immersed in the fight to confront this problem that has affected 1 out of 5 undergraduate women and over 5% of undergraduate men on campus.&lt;br&gt;&lt;br&gt; 
+3) Work to expand and increase access to Liberal Arts research opportunities through heightened interaction between the college and organizations that directly work with COLA students’ interests.&lt;br&gt;&lt;br&gt;
+4) Further integrate the Liberal Arts student body into the conversation of campus carry regulation. Improve awareness and education through a continued working group and aim to better publicize mental health services, develop better safety training, and perform studies on the effects on the student body.&lt;br&gt;&lt;br&gt;
+5) Propose a solution for making high-quality open-source textbooks freely available to the general student body by advocating for a student government sponsored-grant and private funding from donors. These efforts will be aimed at developing and increasing E-book databases, as well as significantly lowering college textbook costs and increasing accessibility to such materials.</t>
+  </si>
+  <si>
+    <t>Junyuan Tan</t>
+  </si>
+  <si>
+    <t>English &amp;amp; Government</t>
+  </si>
+  <si>
+    <t>http://istandwithcam.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I believe that I can truly make a difference in the College of Liberal Arts as a representative because of my passion for the school and pride in my work. I have a variety of diverse leadership experience that I can use to my advantage if allowed to serve on Student Government. I have a good sense of myself, my mission and my belief system and I know that will guide me to be a successful representative. </t>
+  </si>
+  <si>
+    <t>Increase research opportunities for Liberal Arts students through research grants working with Invest in Texas.&lt;br&gt;&lt;br&gt;Open discourse between Liberal Arts students and their representatives to promote transparency for the position via monthly informal town hall meetings&lt;br&gt;&lt;br&gt;Being that it is an election year, bring in speakers and lecturers for Liberal Arts students to educate them on the election process and the candidates&lt;br&gt;&lt;br&gt;Invite COLA students from different concentrations to speak about their field of study in front of a group of Liberal Arts students to allow exploration in other disciplines.
+</t>
+  </si>
+  <si>
+    <t>Alex Balser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Grant-Prengler-for-Liberal-Arts-Rep-610370539126511/?ref=aymt_homepage_panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t know if you’ve noticed, but all students are not necessarily represented in student government here on the UT Austin campus. Along with bringing a new and fresh perspective to student government, I deserve to be the next Liberal Arts representative because I will listen to and learn about concerns and issues that Liberal Arts students are facing, and I will not stop there. I plan to strongly advocate for the benefit of the College of Liberal Arts as a whole. As someone who is empathetic, understanding and determined, I will ensure that the Liberal Arts voice is heard, along with other voices that have essentially been silenced in discussions on campus. </t>
+  </si>
+  <si>
+    <t>Promote inclusion and unity within the college of liberal arts and on campus. Diversity has been the hop topic at UT and several other universities. However, diversity is meaningless if the campus and specifically COLA does not foster an inclusive environment. Even though both COLA and UT can work on the numbers, we need to create a campus and college climate in which all students can enjoy a safe space and be able to make connections and build relationships with each other.&lt;br&gt;&lt;br&gt;Increase Dialogue and knowledge of resources regarding sexual assault on campus. As a survivor of sexual assault who understands the importance of organizations like CMHC and VAV especially on college campuses, the awareness of sexual assault and violence is very important to me. It is important not only for people to know about it, and to talk about it, but also for the victims to understand and have knowledge of the resources available to them.&lt;br&gt;&lt;br&gt;Increase community engagement in large numbers using College of Liberal Arts Students and connecting them with Austin. Community engagement is important because by serving and acknowledging the community around us, we are demonstrating leadership and serving as catalysts for positive change in Texas and eventually beyond. Sound familiar? Well that’s because it’s one of UT’s core values. The youth in Austin need guidance and knowledge of higher education and learning of its accessibility. Through these efforts, we are not only uplifting the community round us but we are improving our knowledge of the world and different situations, thereby increasing understanding of diversity and empathy. With these benefits in mind, what starts here will truly change the world.
+</t>
+  </si>
+  <si>
+    <t>African and African Diaspora Studies</t>
+  </si>
+  <si>
+    <t>Harmony4COLARep</t>
+  </si>
+  <si>
+    <t>My name is Makenzie Stuard and I am a 1st year Government Pre- law major running for Liberal Arts Representative. I grew up in a family full of Aggies, and I quickly decided that wasn’t the place for me. I am so glad I found my home on the Forty Acres.&lt;br&gt;&lt;br&gt;At UT, I have been given the opportunity to serve as a Longhorn Legislative Aide and I hope to continue empowering each student at the university to reach his or her own individual potential.&lt;br&gt;&lt;br&gt;I was very shy when I was younger due to the fact that I suffered from Epilepsy. However, as time past I realized that I could use this as a tool instead of dreading what I had no effect over. Student Government has allowed me to meet so many people who have overcome differences to create positive change on campus.&lt;br&gt;&lt;br&gt;I will work hard to implement student’s ideas into the legislative decision process and I will work to make UT even better! Vote Makenzie for representative; MAKe your dreams… reality!
+</t>
+  </si>
+  <si>
+    <t>Student Health/ Safety- supporting initiatives that improve students' access to first aid resources in and around the College of Liberal Arts. Weekly checks to ensure the dorms have all the required resources for emergency. &lt;br&gt;&lt;br&gt;Community Service- Working to spotlight volunteer organizations in the College of Liberal Arts and have monthly volunteer projects that can be used as extra credit opportunities under the idea of service learning.&lt;br&gt;&lt;br&gt;Promote an inclusive community- Working to increase mixers between liberal arts organizations.&lt;br&gt;&lt;br&gt;Increase number of coffee makers in COLA
+</t>
+  </si>
+  <si>
+    <t>Shannon Matson</t>
+  </si>
+  <si>
+    <t>Government (Pre-Law)</t>
+  </si>
+  <si>
+    <t>As First-Year Rep for the Class of 2019 (who has been “priyaccupied” with your success), I have advocated for change throughout my term. As a non-Greek, brown female, I believe I bring a valuable and unique perspective to SG. If elected again, I will make a greater effort to resolve internal issues by closely listening to the voices of minority groups on campus, making myself more accessible to the student body via social media, and working towards more efficient government structure.&lt;br&gt;&lt;br&gt;I believe change can be made within the UT community by working on policies specifically oriented towards increasing access to resources, research, and representation. My platform strives to restructure the negative sentiment many students feel towards Student Government, and I hope to continue working on these efforts as Liberal Arts Representative.</t>
+  </si>
+  <si>
+    <t>1. RESOURCES
+Students often don’t know about the wide variety of resources available for their use, ranging from the MindBody Lab (http://cmhc.utexas.edu/mindbodylab.html) to UT Legal Services (http://deanofstudents.utexas.edu/lss/). As Liberal Arts Representative, I would work on advertising these services, especially through social media, to the student body.&lt;br&gt;&lt;br&gt;2. RESEARCH
+COLA students often experience a difficult time obtaining internships and research positions. As COLA Rep, I would develop a Liberal Arts research initiative to facilitate the process of acquiring research opportunities. Additionally, I would aim to make the Liberal Arts Career Fair more extensive and accessible – especially for underclassmen. &lt;br&gt;&lt;br&gt;3. REPRESENTATION
+During my time as First-Year Representative, I’ve had firsthand exposure to various issues that currently plague UT Student Government. These problems include lack of diversity among representatives, poor communication with the general student body, and bureaucratic inefficiency. If elected again, I will make a greater effort to resolve internal issues within SG.
+</t>
+  </si>
+  <si>
+    <t>Christina Hoang</t>
+  </si>
+  <si>
+    <t>Plan II</t>
+  </si>
+  <si>
+    <t>not_priya_suri</t>
   </si>
   <si>
     <t xml:space="preserve">Students attend the University of Texas for two main reasons. One is to receive an elite education in preparation for entrance into the job field. The other is to create enduring and meaningful relationships with students and faculty. As a representative of the College of Liberal Arts, I will improve both of these aspects of student life. Creating an alumni lecture series and an annual tour of the Capitol for juniors and seniors will lower concerns about finding jobs. Increasing COLA’s social media presence and forming more social events and organizations will allow students to identify peers with whom they have common interests, build study groups, and more. I have experience in leadership, extensive involvement in social life at UT, and prior familiarity with Student Government. Your vote will enable me to improve the everyday lives of hundreds of COLA students. </t>
@@ -788,6 +1478,9 @@
 I would aim to plan an annual one-day Capitol tour for juniors and seniors.</t>
   </si>
   <si>
+    <t>Tammy Thomas</t>
+  </si>
+  <si>
     <t>Government</t>
   </si>
   <si>
@@ -798,6 +1491,23 @@
   </si>
   <si>
     <t>cns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I believe I am the right person for this position because I am very passionate and outspoken about both government and science-that's why I’m majoring in Biology with a certificate in Ethics and Leadership in Healthcare. Over my academic career, I’ve talked to many students who feel that there could be improvements made to the College of Natural Sciences. And so, if elected I will do everything in my power to represent the students' voices and will work with them to improve this university. Student Government is a great vehicle to bring about change and I have a lot of ideas to bring to the table. Ultimately the reason I'm running is to help make our college experience that much better. So don't hesitate to contact me at mginjupalli97@gmail.com to let me know about your ideas and any questions you might have. Remember: Vote for Mahima to be a part of the greater schema! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If elected I plan to:&lt;br&gt;&lt;br&gt;
+-Strengthen relations with the various science organizations on campus to exchange and implement ideas that would be beneficial to our college.&lt;br&gt;&lt;br&gt;
+- Make SG more transparent/accessible through increased social media coverage&lt;br&gt;&lt;br&gt;
+- Create a scholarship for outstanding N.S. students (similar to the Boot Scholarship)&lt;br&gt;&lt;br&gt;
+-Work with Dell Medical School to provide pre-med undergraduates with networking and shadowing opportunities&lt;br&gt;&lt;br&gt;
+-Establish Medical Scribe classes here at UT </t>
+  </si>
+  <si>
+    <t>Yenei Estrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biology </t>
   </si>
   <si>
     <t>My name is Ramsey Hashem and I want to serve you as College of Natural Sciences Representative. During my time as a Longhorn Legislative Aide this year, I’ve attended every Student Government meeting, learning how UTSG works and working with my fellow LLAs, Representatives, and Executive Board members on various projects. I’ve gotten to see all that UTSG is capable of, including outstanding accomplishments ranging from the removal of the Jefferson Davis statue to increased support for sexual assault victims to more food trucks on campus. As Natural Sciences Representative, I want to keep doing the things that have put UT at the forefront of positive change, while reducing the disharmony that arises far too often in Student Government. My aim is to ensure that the College of Natural Sciences continues producing the influential research and making the groundbreaking discoveries that prove time and time again that CNS has some of the most innovative and brightest students at one of the best universities in the world.&lt;br&gt;&lt;br&gt; 
@@ -818,6 +1528,29 @@
     <t>RamseyHashem</t>
   </si>
   <si>
+    <t xml:space="preserve">Hello everyone!&lt;br&gt;&lt;br&gt;My name is Mayra Sharma, and I am a second year Neuroscience and Plan II major. I'm running for Natural Sciences Representative, because I believe that I have both the capacity and raw desire to improve our college. College could be scary. College could be stressful and overwhelming. College could be, well, a lot.&lt;br&gt;&lt;br&gt;Our goal is to collectively make college the best possible experience. For example, as Natural Sciences Representative, I’d love to work with y’all to improve our college’s overall emotional wellbeing. Currently, I am a peer educator for the Counseling and Mental Health Center. My experiences at CMHC taught me a ton about positive psychology, and I'd love to employ my learnings here to improve CNS as a whole!&lt;br&gt;&lt;br&gt;As your representative, I’d present a platform for you all to come tell me all your ideas. I would essentially serve as the person who communicates your concerns and insights to others and helps translate those into actual change.&lt;br&gt;&lt;br&gt;By coupling my drive and experience with yours, we’ll achieve greatness. So really, a vote for me is a vote for you.&lt;br&gt;&lt;br&gt;Let’s do this together! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Branch out&lt;br&gt;&lt;br&gt;Science is SO cool. It is increasingly relevant, ever-growing, and just plain interesting! I’d love for CNS to collaborate with other colleges and work on interdisciplinary projects. Science relates to philosophy, history, public policy, business, ect. It would be great to apply what we learn in our classes to unique contexts that we don’t typically encounter. It helps us understand the implications of the work we do, which might be hard to see when you spend hours in a lab or days with your nose in your textbooks. It would also be great to branch out to the community and maybe show young kids how cool science is too! I’m open to ideas. What cool projects could you think of? Let me know!&lt;br&gt;&lt;br&gt;2. Enhance emotional wellbeing &lt;br&gt;&lt;br&gt;As a peer educator for the Counseling and Mental Health Center, I learned quite a bit about positive psychology. I loved everything about this novel approach. I’d like to implement what I’ve learned from CMHC to CNS. With this approach, I’d like to encourage students to celebrate their own personal successes. Too often we compare ourselves to other’s accomplishments and standards for success. I’d also like to strengthen student resiliency and promote better strategies to deal with stress—ultimately making students better equipped to confront and overcome challenges. All in all, I’d like to encourage the formation of strong relationships and bonds, a sense of self-efficacy, and the appreciation for obstacles as opportunities for growth and learning. If you’d like to hear more about how I’d like to accomplish this or have suggestions, please reach out and let me know what you think.&lt;br&gt;&lt;br&gt;3. Bridge the gap&lt;br&gt;&lt;br&gt;I am running for College of Natural Sciences Representative not because I think I have all of the answers, but because I think I work really well with others--and we could collectively obtain solutions. I would love to host brainstorm sessions where we could all get together in a sort of think tank and throw out ideas and concerns. Then, we could translate these concerns into solutions. If there could be ONE thing you could change for CNS, what would it be? Share with me! What do you spend your time complaining about with your friends? What do you absolutely love about CNS that you’d like to see more of? </t>
+  </si>
+  <si>
+    <t>Jasleen Shokar</t>
+  </si>
+  <si>
+    <t>Neuroscience and Plan II</t>
+  </si>
+  <si>
+    <t>My name is Uma Vaidyanathan and I’m so excited to be running for Natural Sciences Representative. I am a second-year biochemistry major and I’ve lived in Austin for all of my life. Hook ‘em! Within CNS, I am currently a mentor for both the FRI Aptamer lab and the Women in Natural Sciences program and I'm part of the Health Science Scholars program! My experiences have given me a broad outlook of CNS and I will be dedicated to representing your interests within the college. As your representative, I hope to facilitate interest and increased opportunities in undergraduate research and scholarships as well as to expand student abilities to present their projects to expose others to different areas of science. I also would like to create more mentoring programs between faculty or upperclassmen and first-year students to prompt academic success.&lt;br&gt;&lt;br&gt;I would be so honored to serve as your voice and give y’all more opportunities within CNS! As always, hook ‘em!
+</t>
+  </si>
+  <si>
+    <t>To facilitate interest and increased opportunities for undergraduate research&lt;br&gt;&lt;br&gt;To expand student abilities to present their projects to expose others to different areas of science&lt;br&gt;&lt;br&gt;To create more mentoring programs between faculty or upperclassmen and first-year students to prompt academic success&lt;br&gt;&lt;br&gt;To advocate for further scholarships for students in STEM and for funding for undergraduate research
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biochemistry </t>
+  </si>
+  <si>
     <t>Nursing School Representative</t>
   </si>
   <si>
@@ -838,6 +1571,9 @@
 </t>
   </si>
   <si>
+    <t>Jordan E. Steinberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Undeclared </t>
   </si>
   <si>
@@ -847,43 +1583,144 @@
     <t>ugs</t>
   </si>
   <si>
+    <t>DT Coverage Titles</t>
+  </si>
+  <si>
+    <t>Sahil Bhandari &amp; Michael Scott</t>
+  </si>
+  <si>
+    <t>In 2014, 10% grad students voted. In 2015, 4%. $4000 were left unspent because no grad organization applied for them, all because they didn't know! Our number one priority is engaging all students in the process and to generate awareness of the numerous resources available, including GSA's annual $100,000 budget, which belongs to all grad students. As Sahil is an international student and Michael is working on race in Native American and Indigenous Studies, we can empathize and be more inclusive to non-traditional students and those continually ignored, especially students in professional fields, part time students, students working at other UT-Austin campuses, and students of LGBTQIA orientation generally not heard in GSA or otherwise.&lt;br&gt;&lt;br&gt;Sahil was instrumental in framing the GSA Campus Carry Resolution as an active member of the Legislative Affairs Committee. The resolution was recently passed unanimously.  Michael served as President of the Graduate Student Organization of the School of Education at Virginia Commonwealth University. In this role, he worked to ensure that graduate students were afforded opportunities such as mentoring groups with faculty that prepared them for academic and postgraduate careers.&lt;br&gt;&lt;br&gt; 
+Our focus will be solving issues by consensus of opinion of grad students and their organizations through annual census and informal forums and bridging GSA-grad student divide through orientation sessions and online complaints and suggestion portals. We will tackle longstanding problems such as housing through unconventional ways if necessary, including the Public-Private partnership model and address grad career concerns by expanding on successful UT initiatives like GAIN, LSMU, GLUE, and GURU. More importantly as graduate researchers, we’ll refer to academic literature to help develop better solutions to matters such as campus carry and for increasing voter turnouts.&lt;br&gt;&lt;br&gt;We firmly believe we can achieve all we’re suggesting and would love to hear back on that from you.&lt;br&gt;&lt;br&gt;SAHIL BHANDARI AND MICHAEL SCOTT
+WE LISTEN. WE CARE.</t>
+  </si>
+  <si>
+    <t>1. A louder voice: In 2014, 10% voted. In 2015, 4%. Grad students feel disconnected from the GSA despite the fact that the GSA has a $100,000 budget, all for grad students. We’ll provide a platform for graduate students to voice their concerns and solutions, including but not limited to problems like stipend and housing, via initial polls and an annual census.&lt;br&gt;&lt;br&gt;2. A stronger community: Only 12 grad student organizations, out of at least 150+, applied for GSA funds in Fall. $4,000 were left unspent and we’ll create more awareness for these funds. We won’t expect organizations to come to us, but will reach out to them. We’ll create informal forums for grad students to discuss poll and census results and ensure that all graduate students are aware of and fully utilize resources on campus to enhance their experience; through bridges of orientation sessions, complaints and suggestion portals and interactions with student organizations.&lt;br&gt;&lt;br&gt;3. Safe work-place and Affordable Housing: We will always be open to embrace unconventional but effective ways to tackle longstanding problems such as housing through the Public-Private partnership model. More importantly as graduate researchers, we will refer to academic literature to help develop better solutions to matters such as campus carry and increasing voter participation.  We are specifically dedicated to working with all parties involved to help change the law which would give public universities the same provisions as private universities in a choice of whether or not to allow handguns on our campus.&lt;br&gt;&lt;br&gt;4. Career preparation: The ups and downs of graduate life can throw students into a limbo of despair as they decide on their future careers. We will create and expand successful initiatives such as Graduates Linked to Undergraduates in Engineering (GLUE), Graduate And Industry Networking event (GAIN), LSMU and GURU that will prepare students for academic and other postgraduate careers.</t>
+  </si>
+  <si>
+    <t>Bhandari Scott</t>
+  </si>
+  <si>
+    <t>Chemical Engineering&lt;br&gt;&lt;br&gt;Educational Administration</t>
+  </si>
+  <si>
+    <t>Grad Students</t>
+  </si>
+  <si>
+    <t>BhandariScott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/BhandariScott/ </t>
+  </si>
+  <si>
+    <t>President / Vice-President</t>
+  </si>
+  <si>
+    <t>gsapres</t>
+  </si>
+  <si>
+    <t>Wills Brown &amp; Francesca Cicero</t>
+  </si>
+  <si>
+    <t>Hello! We are Wills Brown and Francesca (CheChe) Cicero, and we are running for GSA President and Vice President because improving the lives of students is what we came to UT to do! We are both first year master’s students in the Higher Education Administration program, and we work in student affairs, because we are passionate about helping students thrive and succeed. We believe that higher education is the way to change people’s lives and better the community at large. All graduate students are busy -- we believe GSA would benefit from leaders with the knowledge, experience and passion to improve lives for all grad students on the 40 Acres.&lt;br&gt;&lt;br&gt;
+Hailing from Dallas, Wills completed his undergraduate work at UT in 2013 and went on to join Teach for America in San Antonio. During his undergraduate career, he served as Student Body Vice President for the 2012-13 academic year. In this position Wills fought to improve student life on the 40 Acres in various ways, including implementing 24-hour access to the PCL during fall and spring semesters and founding the Longhorn Entrepreneurship Agency of Student Government to empower student entrepreneurs.&lt;br&gt;&lt;br&gt;
+While Student Body Vice President, Wills also chaired the Student Services Budget Committee, which oversees the allocation of $42 million in student fees to campus divisions. As one of only a few student members on UT's Faculty Council, Wills has unique and extensive experience working with students, staff, and faculty. Throughout his time in Student Government, Wills built strong relationships with UT administration, which will serve all grad students well if we are elected.&lt;br&gt;&lt;br&gt;
+Francesca is on her second graduate degree, having received a J.D. from the University of California, Hastings College of the Law. As a law student, she worked to integrate law students into the greater San Francisco community with volunteer opportunities. Then, as a trial attorney, Francesca advocated for the needs of her clients before judges and juries. She also represented the needs of associate lawyers in her firm to the organization’s governing board, successfully obtaining additional compensation and maternity leave for all associates. &lt;br&gt;&lt;br&gt;
+As a first-generation college student and first-generation American, Francesca experienced the power higher education has to radically change one’s life, and chose to leave the field of law in order to improve higher education for all students. She will use the skills she gained as an attorney to advocate to the UT administration for the specific needs of graduate students and make our voices heard by the Texas Legislature in the upcoming 2017 session.&lt;br&gt;&lt;br&gt;
+In sum: we eat, breathe, and sleep student affairs, and GSA would definitely be more than a part-time job to us. We want to help improve communication, foster collaboration, and better campus conditions for all UT graduate students.&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Platform Highlights&lt;br&gt;&lt;br&gt;
+Our views on: STUDENTS&lt;br&gt;&lt;br&gt;
+Grad Student Resources: As hard-working graduate students, we are expected to perform at the highest levels. We will work to effectively allocate funding and resources available for grad students in every program.&lt;br&gt;&lt;br&gt;
+Social: At such a large university, we can get mired in the silos of our individual colleges. We will implement programming (such an an annual Grad Prom event) to develop grad student social connections across UT, expanding social circles and opportunities for collaboration.&lt;br&gt;&lt;br&gt;
+Health: High levels of stress require grad students to work under pressure with multiple other demands on our plates.  We believe there should be a larger focus on allocating resources to help grad students thrive and stay healthy, both mentally and physically.&lt;br&gt;&lt;br&gt;
+Our views on: CAMPUS&lt;br&gt;&lt;br&gt;
+Facilities: With the ever-increasing cost of rent in Austin, we as graduate students have a harder time than ever living near campus. We will focus on increasing transparency and our involvement with graduate student housing and facilities to ensure our input is valued in the planning process.&lt;br&gt;&lt;br&gt;
+Transportation: Grad students live off-campus in many different neighborhoods, and often have to work late into the night.  We should be able to get home safely and conveniently - if elected, we’ll work to ensure better parking and transportation options for all.&lt;br&gt;&lt;br&gt;
+Safety: Graduate student safety is one of our top priorities. We will focus on mitigating these concerns through an emphasis on improving access to mental health facilities and partnering with Student Government's SURE Walk to create a mobile safety app for all students.&lt;br&gt;&lt;br&gt;
+Our views on: COMMUNITY&lt;br&gt;&lt;br&gt;
+Communication: Grad students balance a myriad of demands. If elected, we will focus on centralizing pertinent information, using the GSA website and social media, so that you don’t have to.&lt;br&gt;&lt;br&gt;
+Collaboration:  Understanding the diverse disciplines and viewpoints of all grad students is a difficult task, but we are up for the challenge. Our community would benefit greatly from bringing these voices together to build a better future for us all. We plan to ensure that graduate students have permanent seats on pertinent councils such as the Student Services Budget Committee and the University Budget Council.&lt;br&gt;&lt;br&gt;
+Outreach: UT has reach beyond just the 40 Acres. We want to make sure that grad students have opportunities to engage and give back to their Austin community.&lt;br&gt;&lt;br&gt;
+Our views on: FUTURE&lt;br&gt;&lt;br&gt;
+Civic Sensibility: The Texas Legislature will be in session during the spring of 2017.  We want to ensure students’ viewpoints are brought directly to the legislative body who are making the decisions that impact all of us: tuition costs, benefit packages, campus carry (we strongly OPPOSE campus carry), and student debt.&lt;br&gt;&lt;br&gt;
+Innovation:  The University of Texas is truly a place that can change the world, and UT grad students are a major part of that change. Students should have an incubator space and support on the main campus to make our big ideas a reality.&lt;br&gt;&lt;br&gt;
+More Inclusive Campus: We are a diverse community in many ways.  As President and Vice President of GSA we will work to ensure that UT is a place where our differences are respected and celebrated. We'll push for more Gender-Neutral restrooms across campus and create new agencies of GSA (a Women's Resource agency and a LGBTQ agency) in order to better partner with UT's Gender and Sexuality Center.&lt;br&gt;&lt;br&gt;
+Leadership: Many grad students are here to become leaders in their disciplines.  We will work to create more outlets, such as undergraduate mentorship opportunities, for grad students to further enhance their leadership abilities.&lt;br&gt;&lt;br&gt;
+Please check out our website for our more detailed platform!</t>
+  </si>
+  <si>
+    <t>Brown Cicero</t>
+  </si>
+  <si>
+    <t>Ray Flores</t>
+  </si>
+  <si>
+    <t>Higher Education Administration&lt;br&gt;&lt;br&gt;Masters</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>www.twitter.com/WillsCheChe</t>
+  </si>
+  <si>
+    <t>www.willscheche.com</t>
+  </si>
+  <si>
+    <t>Warner Cook &amp; Eloise Boisjoli</t>
+  </si>
+  <si>
+    <t>Both:&lt;br&gt;&lt;br&gt;⇒ We have a shared experience record of active participation in the GSA of 5 years, the most of any executive alliance.&lt;br&gt;&lt;br&gt;⇒ We have an awareness of the unique challenges for both professional and academic graduates students.&lt;br&gt;&lt;br&gt;⇒ Through our experiences in the GSA, we are already familiar with the current methods of implementation for GSA initiatives.&lt;br&gt;&lt;br&gt;Warner (President): I’m passionate about the changes I’ve seen myself creating through the activities I have already participated in through the GSA and I feel that as President I would have the exciting and unique opportunity to oversee and coordinate initiatives that I see my fellow students getting passionate about. As president I would be able to help other people affect the changes they would like to see on campus. In the capacity of President I intend to thoughtfully and actively represent the graduate student voice; I am good at listening, both to students wants and needs, and also to the people with whom I might disagree. In my current roles, I routinely speak with University deans and directors and representatives from the City of Austin, so I look forward to the opportunity to continue developing these relationships and make new ones, and to demonstrate effective communication about and representation of graduate student concerns and voices.&lt;br&gt;&lt;br&gt;Ellie (Vice President): I’m running for your vice-president because I really really like UT, and I want to see this place become even better, as my last few years on the GSA have proved can be done! I feel that I can help our community improve through the role of vice president by sharing my energy, my attention to detail, and my passion about issues. In the capacity of vice-president I would continue to ensure efficient and brief meetings of the GSA. Understanding that Robert’s Rules helps to create a well-oiled machine, but that it can also be overwhelming for new participants, I would offer regular Robert’s Rules primers before meeting to nurture a welcoming and accessible environment.</t>
+  </si>
+  <si>
+    <t>"Our platform is to A.C.T. :&lt;br&gt;&lt;br&gt;
+We want to continue the ongoing improvements to the workings of the GSA by improving ACCESSIBILITY&lt;br&gt;&lt;br&gt;primarily through the updating how the GSA utilizes technology to communicate both internally and with the wider graduate student body by creating a permanent position on the executive board to solely responsible for managing GSA’s technological presence by working with the Rules and Administration committee establish a digital history of the GSA; and by establishing a regularly recurring Robert’s Rules before meetings to continue efficient and accessible procedures and yet create a welcoming and environment. We want to continue to improve our Graduate student COMMUNITY by continuing to develop and support the Graduate Student Housing Committee, which Warner currently co-chairs, advocating for affordable and conveniently located graduate student housing that meets a range of graduate student needs and lifestyles; by spotlighting transportation as a major concern for graduate students, specifically improving bicycle infrastructure, such as bike lanes and safer parking facilities, and shuttle route frequency and connectivity;&lt;br&gt;&lt;br&gt;by supporting and encouraging graduate student activism, writing effective resolutions representing graduate student voices, and providing a central location for graduate students to communicate their messages; and by ensuring graduate students participate in the inevitable rewriting of University admissions and operational policies. We believe that diversity make us stronger, that graduate students learn more from a wide variety of peers, and that we benefit from outside perspectives both in the classroom and once we leave campus, and we want an admissions policy that reflects this.&lt;br&gt;&lt;br&gt;We will urge the University to increase TRANSPARENCY in its interaction with incoming and current graduate students&lt;br&gt;&lt;br&gt;particularly through the ongoing work of the Graduate Student Bill of Rights and Responsibilities committee, on which Warner also serves, by continuing to operationalize more explicit policies for good-faith protection of graduate students. Targeted efforts include grievance processes, non-discrimination, and ongoing representation in discussions that affect graduate students; and through working with established University offices, by increasing available information about tuition, funding, and cost-of-living in Austin, creating a more transparent process for incoming graduate students as they consider a graduate education at UT Austin."</t>
+  </si>
+  <si>
+    <t>Cook Boisjoli</t>
+  </si>
+  <si>
+    <t>MS Sustainable Design and MS Community &amp;amp; Regional Planning&lt;br&gt;&lt;br&gt;PhD Music Theory</t>
+  </si>
+  <si>
+    <t>2nd year Masters student&lt;br&gt;&lt;br&gt;3rd year Doctoral student</t>
+  </si>
+  <si>
+    <t>facebook.com/cook.boisjoli</t>
+  </si>
+  <si>
+    <t>DT Coverage URL</t>
+  </si>
+  <si>
     <t>Number of Positions</t>
   </si>
   <si>
-    <t>Running With</t>
-  </si>
-  <si>
-    <t>Michael Scott</t>
-  </si>
-  <si>
-    <t>Wills Brown</t>
-  </si>
-  <si>
-    <t>Francesca Cicero</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>gsapres</t>
-  </si>
-  <si>
-    <t>Warner Cook</t>
-  </si>
-  <si>
-    <t>Eloise Boisjoli</t>
-  </si>
-  <si>
-    <t>Vice-President</t>
-  </si>
-  <si>
-    <t>gsavp</t>
-  </si>
-  <si>
     <t xml:space="preserve">J. Dylan Adkins, McCombs School of Business </t>
   </si>
   <si>
     <t>Board of Directors</t>
+  </si>
+  <si>
+    <t>My name is Dylan Adkins, and I am running for the position to be one of your student board members for the University Co-op. With experience around campus, including The University of Texas Student Government, the Undergraduate Business Council, the Center for Sports Leadership and Innovation, and the Gateway Scholars Program, my diversification of organizations and knowledge garnered from people within them make me a valuable candidate for this position. I have led tangible initiatives from holding candle-lit vigils for the November attacks on Paris, Beirut, and others, to passing legislation to bring food trucks on campus this coming February as a part of the Speedway Project. I'm a proud Longhorn that wants to better the student experience for the long run. Hook'em!</t>
+  </si>
+  <si>
+    <t>If selected as a student member on the Board of Directors, I look to:&lt;br&gt;&lt;br&gt;
+-Increase efficiency of book selling processes to students&lt;br&gt;&lt;br&gt;
+-Create discounts for bulk buys of books for students&lt;br&gt;&lt;br&gt;
+-Create a yearly promotional event for the Co-op and UT in the picnic area behind the store&lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dylan Adkins</t>
+  </si>
+  <si>
+    <t>Anna Wang</t>
+  </si>
+  <si>
+    <t>BHP, Accounting</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1049980955064268/</t>
   </si>
   <si>
     <t>board</t>
@@ -897,24 +1734,154 @@
     <t>Expand student knowledge about rebate cards and the opportunity for organization funding.&lt;br&gt;&lt;br&gt;Help the Co-Op become an even more influential leader as the #1 college bookstore in America.</t>
   </si>
   <si>
+    <t>Alexa Lewis</t>
+  </si>
+  <si>
+    <t>Hannah Matula</t>
+  </si>
+  <si>
     <t>Math</t>
   </si>
   <si>
     <t>http://tinyurl.com/CoOpAlexa</t>
   </si>
   <si>
+    <t xml:space="preserve">Running for the Co-op Board of Directors is something that I’ve been excited to do for a long time now. Through various organizations that I have had the fortune of joining, including the UT Senate, the Undergraduate Business Council, and many others, I believe that I am fully prepared for this Co-op position. With this position I hope to help improve the lives of UT students by voicing student concerns to the other Board members. Some of the things I’d like to do are lower textbook prices, offer better merchandise, and use the food truck lot more productively. I believe that my ability to communicate effectively while also being able to listen to the wants and needs of the student population will ensure that I am able to perform in this role in a way that is beneficial to the UT student body. </t>
+  </si>
+  <si>
+    <t>1. Improve textbook order process and prices&lt;br&gt;&lt;br&gt;
+2. Improve merchandise offered&lt;br&gt;&lt;br&gt;
+3. Use food truck lot behind the Co-op more effectively</t>
+  </si>
+  <si>
+    <t>Travis Monteleone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Board of Directors </t>
   </si>
   <si>
     <t>unionboard</t>
   </si>
   <si>
+    <t>I have been heavily involved with the University Unions through my dedication to Campus Events + Entertainment. I currently hold the position of Executive Vice President and after my term, I want to continue my work with the Unions by being on the University Unions Board of Directors. By being a Board Representative, I pledge to ensure that those who utilize available resources offered by the Unions have their voices heard and leave with a positive experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve student awareness of available resources and ensure that they have a positive experience.&lt;br&gt;&lt;br&gt;Bring about a better sense of transparency and improve communication between the Board and the student organizations that utilize the University Unions space.&lt;br&gt;&lt;br&gt;Strengthen student voices and work hand-and-hand with organizations to help establish a successful future of the University Unions and their activities. </t>
+  </si>
+  <si>
+    <t>Alejandra Martinez</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1035398799851125/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey Longhorns! I would like to become the student representative for the University Unions Board of Directors. I am a Junior majoring in finance and minoring in management with a passion for nonprofits, higher education, and healthcare. I am currently involved on campus through organizations such as Texas Blazers, Texas THON, Beta Chi Theta, and McCombs Diversity Council. I spent a year at the Michael &amp;amp; Susan Dell Foundation to assist in managing the Dell Scholars Program, which aims to raise graduation and retention rates amongst first generation college students. In addition, I have held multiple internships in both the US and Australia, allowing me to work with many different types of people towards unique missions. I believe my experiences and passion to serve my campus, community, and the Union will bring a more diverse perspective and representation of the student body. If elected, I want to make the Union a more collaborative space for students and strengthen the partnership with E+E. I’m committed to your dream, vote for Rahim Karim! </t>
+  </si>
+  <si>
+    <t>1) Increase seating in the SAC while maintaining capacity regulations.&lt;br&gt;&lt;br&gt;
+2) Improve SAC Chik-Fil-A efficiency and work closely with Aramark to be adequately staffed during peak hours as well as bring more food options to campus buildings.&lt;br&gt;&lt;br&gt;
+3) Find a space on campus to have a startup incubator.&lt;br&gt;&lt;br&gt;
+4) Increase diversity of attendance at E+E events.&lt;br&gt;&lt;br&gt;
+5) Make the Union sexier and hotter(literally)! There have been complaints that the building is too cold, so by raising the temperature by 2 degrees we can be cost efficient in energy savings, promote a studying environment, and have less people fall asleep against their will.</t>
+  </si>
+  <si>
+    <t>Shazia Karim</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/902485573203780/</t>
+  </si>
+  <si>
+    <t>My name is Sean Moore, and I am a second-year petroleum engineering major here at the University of Texas at Austin. As a Colorado-born Texas transplant, coming to Texas was quite the change in both scenery and pace. From this external perspective, I believe the key difference between UT and other universities is the sheer quantity and variety of events, opportunities, and resources provided to students here on the Forty Acres. Prior members of the Union Board have worked hard to provide new experiences and opportunities to students. With your help, I hope to take their work to the next level. I plan to use my extensive experience in Colorado politics, private industry, and my prior and current engineering leadership roles to generate effective recommendations on the resource needs and interests of the student body while actively pushing for a budget that reflects our nation-leading student resources and opportunities. More connectivity. More fun. More options. More tailgating. Moore for Texas.</t>
+  </si>
+  <si>
+    <t>More Connectivity: Let's bring Hogg Auditorium out of the Dark Ages by adding WiFi.&lt;br&gt;&lt;br&gt;
+More Fun: The Journey to the Middle of the 70s (also known as the Union Underground) is not only difficult to find, but also long overdue for an update. Let's revive some classic fun here at UT!&lt;br&gt;&lt;br&gt;
+More Options: With Taco Cabana barely struggling to make two stars on Yelp, it's time to bring some better, student-backed options to the Student Activity Center.&lt;br&gt;&lt;br&gt;
+More Tailgating: T-minus one block to the game. With the construction displacing major tailgating options for UT students and alumni alike, let's work to bring tailgating to the East Mall Circle and create a relationship with campus vendors for catering.</t>
+  </si>
+  <si>
+    <t>AJ Ramirez</t>
+  </si>
+  <si>
+    <t>MooreForTexas</t>
+  </si>
+  <si>
+    <t>http://tinyurl.com/MooreforTexas</t>
+  </si>
+  <si>
+    <t>Having been involved with Campus Events + Entertainment for the past three years and being a current member of the University Unions Board of Directors, I have grown to learn about all of the valuable services the University Unions have to offer students. Whether as a convenient study space, your favorite lunch spot, or as a venue for events hosted by student organizations across campus, the Unions are full of incredible resources for all Longhorns! I believe I am the best candidate for the position because I'm already knowledgable as a member of the Board, am familiar with many of the internal processes the Unions undergo, and have experience as a student leader working closely with the University Unions. With your support, I pledge to represent the diverse students interests across campus and help bring about useful resources and lasting change to the University Unions that Longhorns across the 40 Acres deserve!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Increase student voices on the University Unions Board of Directors by promoting more transparancy between the Board and other major student entities on campus.&lt;br&gt;&lt;br&gt;
+2) Promote more direct engagement between the University Unions Board of Directors with student organizations who use any Unions facility for their events.&lt;br&gt;&lt;br&gt;
+3) Work directly with major student groups to encourage greater usage of the University Unions' spaces, primarily the Texas Union and 2609 University Ave. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics &amp;amp; Economics </t>
+  </si>
+  <si>
+    <t>dianitapls_</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/854984831294063/</t>
+  </si>
+  <si>
+    <t>Hello and Hook 'Em! My name is John Pesek, and I am a second year chemical engineering major. I reign from the small town of Odem, Texas, and I enjoy hiking, fishing, and watching sports in my spare time.&lt;br&gt;&lt;br&gt;I'd really appreciate your vote for Union Board of Representatives.  I hope to serve you with the utmost ambition, commitment, and integrity. I aim to make the voice of students heard in major campus decisions. My upbringing in a diverse background as well as my involvement in many on campus organizations has provided me with valuable expertise that I will use to serve our student body. I believe it is in our interest to revolutionize our campus services as much as possible while maintaining the high level of quality that we expect. "What starts here, changes the world," and I'd like to uphold that tradition!
+</t>
+  </si>
+  <si>
+    <t>- Revolutionize our campus facilities with the help of students and student organizations&lt;br&gt;&lt;br&gt;- Ensure that students have a voice in allocation of funding for campus facilities and events&lt;br&gt;&lt;br&gt;-Work to continue creating a safe and enjoyable atmosphere for all students&lt;br&gt;&lt;br&gt;-Strive to uphold our tradition as a world class university
+</t>
+  </si>
+  <si>
+    <t>Andrew Riali</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
     <t>Helen Yang</t>
   </si>
   <si>
+    <t>Hey Longhorns! My name is Helen Lei Yang, I’m an economics major, and I am running for the University Unions Board of Directors. As an international student, I bring a unique perspective to this position as well as passion for this campus that I now call home. I also have experience planning and running activities with the Campus Events + Entertainment, so I feel comfortable in a leadership role. I’m so proud to be part of the UT community, and I want to work hard to make campus life enjoyable for all of you.</t>
+  </si>
+  <si>
+    <t>- Improve the accessibility of University Unions facilities and resources for students and student organizations&lt;br&gt;&lt;br&gt;- Increase overall transparency to the student body&lt;br&gt;&lt;br&gt;- Promote presence of University Unions along with Campus E+E on campus</t>
+  </si>
+  <si>
+    <t>Winnie Chang</t>
+  </si>
+  <si>
+    <t>Hello Longhorns, my name is Paul Mannie III and I am running for President of Campus Events and Entertainment. E+E has been a home for me since my first moments stepping on the Forty Acres. Being the Publicity chair for the African American Culture Committee (AACC) has been an experience I wouldn't trade for the world. As President of E+E I will continue to fight for all the great events that we have all come to love!</t>
+  </si>
+  <si>
+    <t>"While E+E is a very inclusive community, I think we can do a much better job internally supporting each other. This starts with each committee learning as much as they can about members in other committees through socials and other E+E wide gatherings.&lt;br&gt;&lt;br&gt;E+E is a very large organization that plans very diverse events. This is something that I feel a lot of students would love to be apart of and it is a mission of mine to make E+E a name that is talked about in every dorm room and apartment. This includes having a weekly update of the events that we are hosting every week.&lt;br&gt;&lt;br&gt;One more major thing I want to do for E+E is allow students in the 9 different committees the chance to make lasting friendships in other committees. One large problem I see now is that E+E has so many events that not every member can go to. Having a reward system for students that go to events of other committees would encourage students across all committees to interact with the other committees and make friends in different walks of life.</t>
+  </si>
+  <si>
+    <t>Nikki Lasalla</t>
+  </si>
+  <si>
+    <t>pmannie</t>
+  </si>
+  <si>
     <t>unionpres</t>
   </si>
   <si>
+    <t xml:space="preserve">Since my first semester at UT, E+E has played a huge role in my college career which is why I'm running for E+E president. I've been a member, event assistant and publicity officer for Mexican American Culture committee and a member of Texas Traditions.&lt;br&gt;&lt;br&gt;I've learned about my leadership skills, I've been given the opportunity to develop skills that will help me in my career as a publicist, and I've meet my best friends through E+E.&lt;br&gt;&lt;br&gt;Since the rebranding in 2013, I've seen it grow and I want to see it continue growing by building better relationships with other organizations on campus and the Greek Community, increasing overall E+E brand awareness, and internally, creating a sense of community and family within E+E members by giving the members more opportunities to interact with people in different committees via more social and community service events. </t>
+  </si>
+  <si>
+    <t>Increase sponsorships and build better relationships with other UT organizations and the Greek Community&lt;br&gt;&lt;br&gt;Increase general E+E Brand awareness&lt;br&gt;&lt;br&gt;Continue building a sense of community and family within E+E through more socials and community service events</t>
+  </si>
+  <si>
+    <t>Public Relations</t>
+  </si>
+  <si>
+    <t>dear_tere</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TeresaReyesEEPResident/</t>
+  </si>
+  <si>
     <t>Daily Texan Editor-In-Chief</t>
   </si>
   <si>
@@ -931,6 +1898,21 @@
   </si>
   <si>
     <t>TSM Board &amp;#47; Moody College Place 2</t>
+  </si>
+  <si>
+    <t>“I have been a staff member for The Daily Texan for three semesters, and during this time I have served the paper as a columnist, senior columnist and editor. I have also spent two years as a journalism major in the Moody College of Communication. I have developed strong relationships with both Moody College and Texas Student Media, and I have a desire to serve them both further. Because of this, I would be pleased to serve as a Student Member of the Texas Student Media Board of Trustees from the Moody College.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Continue the great relationship between Moody College and Texas Student Media entities&lt;br&gt;&lt;br&gt;-Encourage more Moody students to participate in various forms of Texas Student Media&lt;br&gt;&lt;br&gt;-Help the Board make decisions that will have the most positive impact possible on Texas Student Media </t>
+  </si>
+  <si>
+    <t>Patrick Dolan</t>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>mimimdolan</t>
   </si>
   <si>
     <t>tsmboard</t>
@@ -940,7 +1922,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -959,8 +1941,41 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="'times new roman'"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+    </font>
+    <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF141823"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <color rgb="FF500050"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -989,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1012,10 +2027,28 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1024,7 +2057,22 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1971,214 +3019,397 @@
       <c r="M1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>149</v>
+      <c r="L2" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
+      <c r="J3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>149</v>
+      <c r="L3" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>151</v>
+      <c r="A4" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>152</v>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>149</v>
+      <c r="L5" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>159</v>
+      <c r="C6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>159</v>
+      <c r="J7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>159</v>
+      <c r="C8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>159</v>
+      <c r="C9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>159</v>
+      <c r="C10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>159</v>
+      <c r="C11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>159</v>
+      <c r="C12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>159</v>
+      <c r="C13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>159</v>
+      <c r="C14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -2186,25 +3417,31 @@
         <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>217</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>159</v>
+        <v>220</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -2212,50 +3449,89 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>222</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>159</v>
+        <v>226</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>159</v>
+      <c r="C17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>159</v>
+      <c r="C18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -2263,47 +3539,98 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>172</v>
+        <v>233</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>159</v>
+        <v>235</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>159</v>
+      <c r="C20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>159</v>
+      <c r="C21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -2311,617 +3638,1285 @@
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>248</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>182</v>
+      <c r="C24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="9"/>
+        <v>57</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>184</v>
+        <v>260</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>182</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>182</v>
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>182</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>182</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>182</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="M32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>192</v>
+      <c r="I33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="C36" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="C37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="C38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>205</v>
+      <c r="C39" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>205</v>
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>205</v>
+      <c r="A41" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>209</v>
+        <v>71</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>211</v>
+        <v>343</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>213</v>
+        <v>76</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>217</v>
+      <c r="C46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>217</v>
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>217</v>
+        <v>366</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>217</v>
+        <v>91</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>217</v>
+        <v>84</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>217</v>
+        <v>83</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>217</v>
+        <v>88</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>217</v>
+        <v>87</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>217</v>
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>220</v>
+        <v>399</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>221</v>
+        <v>401</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>217</v>
+        <v>402</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>217</v>
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>224</v>
+      <c r="C60" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>224</v>
+        <v>94</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>230</v>
+      <c r="C63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>232</v>
+        <v>99</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>237</v>
+      <c r="C66" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="J4"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2964,117 +4959,145 @@
         <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>244</v>
+        <v>446</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>244</v>
+        <v>455</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="M5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="E5" s="9"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8">
-      <c r="O8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I3"/>
+    <hyperlink r:id="rId2" ref="J3"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3090,7 +5113,7 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>134</v>
@@ -3120,28 +5143,52 @@
         <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>435</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>464</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>465</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>471</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>251</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
@@ -3149,28 +5196,34 @@
         <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>473</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>253</v>
+        <v>474</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>476</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>254</v>
+        <v>477</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>255</v>
+        <v>478</v>
       </c>
       <c r="N3" s="1">
         <v>2.0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>251</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4">
@@ -3178,10 +5231,19 @@
         <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>465</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>251</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5">
@@ -3189,19 +5251,36 @@
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>465</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>251</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6">
-      <c r="O6" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="O6" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="K2"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3217,46 +5296,43 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>143</v>
+        <v>462</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -3264,13 +5340,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="3">
@@ -3278,10 +5360,31 @@
         <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="4">
@@ -3289,10 +5392,31 @@
         <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="5">
@@ -3300,21 +5424,69 @@
         <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="7">
@@ -3322,21 +5494,57 @@
         <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>258</v>
+        <v>506</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>257</v>
+        <v>482</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="9">
@@ -3346,11 +5554,29 @@
       <c r="B9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>259</v>
+      <c r="D9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="10">
@@ -3360,8 +5586,32 @@
       <c r="B10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>259</v>
+      <c r="D10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3381,10 +5631,10 @@
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>463</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>134</v>
@@ -3414,13 +5664,13 @@
         <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>143</v>
+        <v>435</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -3428,25 +5678,29 @@
         <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>262</v>
+        <v>522</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>263</v>
+        <v>523</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>264</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
@@ -3454,13 +5708,34 @@
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
